--- a/sriramModel-nelson-atypical-patientID_1-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.029574384059375</v>
+        <v>1.054827445451819</v>
       </c>
       <c r="C2">
-        <v>1.202009344326751</v>
+        <v>1.013235045809032</v>
       </c>
       <c r="D2">
-        <v>1.042202869187623</v>
+        <v>1.029827400878343</v>
       </c>
       <c r="E2">
-        <v>1.02914015299372</v>
+        <v>1.196663446710877</v>
       </c>
       <c r="F2">
-        <v>1.038986768697596</v>
+        <v>1.091608307160621</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.058735882873064</v>
+        <v>1.108155752156269</v>
       </c>
       <c r="C3">
-        <v>1.402635998387509</v>
+        <v>1.026053245155172</v>
       </c>
       <c r="D3">
-        <v>1.083204302348056</v>
+        <v>1.059147768524634</v>
       </c>
       <c r="E3">
-        <v>1.057580736569457</v>
+        <v>1.390242528800567</v>
       </c>
       <c r="F3">
-        <v>1.07724446295855</v>
+        <v>1.180595097694537</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.087484709607896</v>
+        <v>1.159946461814562</v>
       </c>
       <c r="C4">
-        <v>1.60152900488899</v>
+        <v>1.038460905935481</v>
       </c>
       <c r="D4">
-        <v>1.123033908709139</v>
+        <v>1.087965265315489</v>
       </c>
       <c r="E4">
-        <v>1.085333138692223</v>
+        <v>1.577565100123091</v>
       </c>
       <c r="F4">
-        <v>1.114781340138665</v>
+        <v>1.26703175690624</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.115821125998413</v>
+        <v>1.210165509876065</v>
       </c>
       <c r="C5">
-        <v>1.797236553733454</v>
+        <v>1.050464356470327</v>
       </c>
       <c r="D5">
-        <v>1.161720100473516</v>
+        <v>1.116284104738665</v>
       </c>
       <c r="E5">
-        <v>1.112408432989207</v>
+        <v>1.753218174994268</v>
       </c>
       <c r="F5">
-        <v>1.151605564089497</v>
+        <v>1.350987382546377</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.1437454442955</v>
+        <v>1.258783412733577</v>
       </c>
       <c r="C6">
-        <v>1.985484592902295</v>
+        <v>1.062069681108129</v>
       </c>
       <c r="D6">
-        <v>1.199290187931047</v>
+        <v>1.144108260438889</v>
       </c>
       <c r="E6">
-        <v>1.138817394776879</v>
+        <v>1.909917857128431</v>
       </c>
       <c r="F6">
-        <v>1.187725210645474</v>
+        <v>1.432528946369695</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.171258029101288</v>
+        <v>1.305775428531804</v>
       </c>
       <c r="C7">
-        <v>2.15676538745347</v>
+        <v>1.073282811906752</v>
       </c>
       <c r="D7">
-        <v>1.235770463909147</v>
+        <v>1.171441525742603</v>
       </c>
       <c r="E7">
-        <v>1.164570516206376</v>
+        <v>2.040652032499666</v>
       </c>
       <c r="F7">
-        <v>1.223148272647368</v>
+        <v>1.511721425093157</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.198359299083478</v>
+        <v>1.351121565099876</v>
       </c>
       <c r="C8">
-        <v>2.296651050809478</v>
+        <v>1.084109551404196</v>
       </c>
       <c r="D8">
-        <v>1.271186278935485</v>
+        <v>1.198287526830709</v>
       </c>
       <c r="E8">
-        <v>1.189678019928975</v>
+        <v>2.141789778076257</v>
       </c>
       <c r="F8">
-        <v>1.257882664612149</v>
+        <v>1.588627869975091</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.225049728510828</v>
+        <v>1.394806387637311</v>
       </c>
       <c r="C9">
-        <v>2.393904099056483</v>
+        <v>1.094555564369126</v>
       </c>
       <c r="D9">
-        <v>1.305562108272753</v>
+        <v>1.224649724401738</v>
       </c>
       <c r="E9">
-        <v>1.214149871872055</v>
+        <v>2.214589231063334</v>
       </c>
       <c r="F9">
-        <v>1.291936226878391</v>
+        <v>1.663309463362738</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.251329848696206</v>
+        <v>1.436818670966668</v>
       </c>
       <c r="C10">
-        <v>2.449896181630163</v>
+        <v>1.104626392633273</v>
       </c>
       <c r="D10">
-        <v>1.338921611877934</v>
+        <v>1.250531440018373</v>
       </c>
       <c r="E10">
-        <v>1.237995792960606</v>
+        <v>2.263876486800229</v>
       </c>
       <c r="F10">
-        <v>1.325316729488778</v>
+        <v>1.735825578757753</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.277200249308866</v>
+        <v>1.477150944559769</v>
       </c>
       <c r="C11">
-        <v>2.475803765545112</v>
+        <v>1.114327456339019</v>
       </c>
       <c r="D11">
-        <v>1.371287688167179</v>
+        <v>1.275935854463827</v>
       </c>
       <c r="E11">
-        <v>1.261225269938828</v>
+        <v>2.295545645782124</v>
       </c>
       <c r="F11">
-        <v>1.358031875643954</v>
+        <v>1.806233852245111</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.302661579552242</v>
+        <v>1.515798961921921</v>
       </c>
       <c r="C12">
-        <v>2.483381786098508</v>
+        <v>1.123664065872779</v>
       </c>
       <c r="D12">
-        <v>1.402682522343738</v>
+        <v>1.30086602350367</v>
       </c>
       <c r="E12">
-        <v>1.28384756528655</v>
+        <v>2.314817116078049</v>
       </c>
       <c r="F12">
-        <v>1.390089304868934</v>
+        <v>1.874590245040757</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.32771454923738</v>
+        <v>1.552761161971036</v>
       </c>
       <c r="C13">
-        <v>2.480698177489395</v>
+        <v>1.132641433119112</v>
       </c>
       <c r="D13">
-        <v>1.433127629945303</v>
+        <v>1.325324886718998</v>
       </c>
       <c r="E13">
-        <v>1.305871726368257</v>
+        <v>2.325646822352708</v>
       </c>
       <c r="F13">
-        <v>1.421496595886489</v>
+        <v>1.940949097616668</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.352359929739551</v>
+        <v>1.588038209399709</v>
       </c>
       <c r="C14">
-        <v>2.472409625888907</v>
+        <v>1.141264669059488</v>
       </c>
       <c r="D14">
-        <v>1.462643896177072</v>
+        <v>1.349315269068186</v>
       </c>
       <c r="E14">
-        <v>1.327306593827296</v>
+        <v>2.330802358008146</v>
       </c>
       <c r="F14">
-        <v>1.452261269188183</v>
+        <v>2.005363180357908</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.376598554846373</v>
+        <v>1.621632687285609</v>
       </c>
       <c r="C15">
-        <v>2.461045145233815</v>
+        <v>1.149538796420686</v>
       </c>
       <c r="D15">
-        <v>1.491251611521354</v>
+        <v>1.372839895280432</v>
       </c>
       <c r="E15">
-        <v>1.348160809272238</v>
+        <v>2.332147048094547</v>
       </c>
       <c r="F15">
-        <v>1.482390789357993</v>
+        <v>2.067883743156433</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.400431321498595</v>
+        <v>1.653549008029517</v>
       </c>
       <c r="C16">
-        <v>2.447966423381214</v>
+        <v>1.157468754015791</v>
       </c>
       <c r="D16">
-        <v>1.518970504052221</v>
+        <v>1.395901395362906</v>
       </c>
       <c r="E16">
-        <v>1.368442822319027</v>
+        <v>2.330916853714312</v>
       </c>
       <c r="F16">
-        <v>1.511892567152279</v>
+        <v>2.128560572414697</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.423859190425639</v>
+        <v>1.683793636399889</v>
       </c>
       <c r="C17">
-        <v>2.433917381903373</v>
+        <v>1.165059399709441</v>
       </c>
       <c r="D17">
-        <v>1.54581976882787</v>
+        <v>1.41850231025263</v>
       </c>
       <c r="E17">
-        <v>1.38816089702076</v>
+        <v>2.327929923310902</v>
       </c>
       <c r="F17">
-        <v>1.54077396135427</v>
+        <v>2.187442045392584</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.446883186686178</v>
+        <v>1.712375571067646</v>
       </c>
       <c r="C18">
-        <v>2.419314331951952</v>
+        <v>1.172315512267838</v>
       </c>
       <c r="D18">
-        <v>1.571818094681255</v>
+        <v>1.440645097161254</v>
       </c>
       <c r="E18">
-        <v>1.407323117726237</v>
+        <v>2.323730761548173</v>
       </c>
       <c r="F18">
-        <v>1.569042280423099</v>
+        <v>2.244575084665181</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.469504400104538</v>
+        <v>1.739307046194357</v>
       </c>
       <c r="C19">
-        <v>2.404396670699662</v>
+        <v>1.179241802250487</v>
       </c>
       <c r="D19">
-        <v>1.596983688713619</v>
+        <v>1.462332138318086</v>
       </c>
       <c r="E19">
-        <v>1.425937394403177</v>
+        <v>2.318685139314566</v>
       </c>
       <c r="F19">
-        <v>1.596704783948842</v>
+        <v>2.30000532029142</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.491723985617739</v>
+        <v>1.7646043510022</v>
       </c>
       <c r="C20">
-        <v>2.389305894888873</v>
+        <v>1.185842921586715</v>
       </c>
       <c r="D20">
-        <v>1.62133429871783</v>
+        <v>1.483565741095862</v>
       </c>
       <c r="E20">
-        <v>1.444011467462019</v>
+        <v>2.313041589231013</v>
       </c>
       <c r="F20">
-        <v>1.623768683930135</v>
+        <v>2.353777079868972</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.513543163527825</v>
+        <v>1.788288502011236</v>
       </c>
       <c r="C21">
-        <v>2.374127878208028</v>
+        <v>1.192123443287282</v>
       </c>
       <c r="D21">
-        <v>1.64488723374314</v>
+        <v>1.504348154527216</v>
       </c>
       <c r="E21">
-        <v>1.461552912108611</v>
+        <v>2.306971088455174</v>
       </c>
       <c r="F21">
-        <v>1.650241145887118</v>
+        <v>2.405933451893807</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.534963219664246</v>
+        <v>1.810385821109974</v>
       </c>
       <c r="C22">
-        <v>2.358916050992215</v>
+        <v>1.198087884824362</v>
       </c>
       <c r="D22">
-        <v>1.667659383045547</v>
+        <v>1.524681556177235</v>
       </c>
       <c r="E22">
-        <v>1.478569142257052</v>
+        <v>2.300592780175061</v>
       </c>
       <c r="F22">
-        <v>1.676129289822016</v>
+        <v>2.456516309858781</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.555985505462478</v>
+        <v>1.830928102442966</v>
       </c>
       <c r="C23">
-        <v>2.343704436483345</v>
+        <v>1.203740729443854</v>
       </c>
       <c r="D23">
-        <v>1.68966723353927</v>
+        <v>1.544568086202275</v>
       </c>
       <c r="E23">
-        <v>1.495067414026414</v>
+        <v>2.293990735455568</v>
       </c>
       <c r="F23">
-        <v>1.701440191039358</v>
+        <v>2.505566326846028</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.576611437952954</v>
+        <v>1.849952414463163</v>
       </c>
       <c r="C24">
-        <v>2.328515168415549</v>
+        <v>1.209086356779909</v>
       </c>
       <c r="D24">
-        <v>1.710926885933534</v>
+        <v>1.564009823246921</v>
       </c>
       <c r="E24">
-        <v>1.511054828849656</v>
+        <v>2.287225080420132</v>
       </c>
       <c r="F24">
-        <v>1.726180880837127</v>
+        <v>2.553123025924211</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.596842499673788</v>
+        <v>1.867500628435947</v>
       </c>
       <c r="C25">
-        <v>2.313362931547681</v>
+        <v>1.214129123276087</v>
       </c>
       <c r="D25">
-        <v>1.731454069675384</v>
+        <v>1.583008815135946</v>
       </c>
       <c r="E25">
-        <v>1.526538336217442</v>
+        <v>2.28033935309391</v>
       </c>
       <c r="F25">
-        <v>1.750358347078404</v>
+        <v>2.599224810734774</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.616680238498651</v>
+        <v>1.883618696589466</v>
       </c>
       <c r="C26">
-        <v>2.298257645022307</v>
+        <v>1.218873349214548</v>
       </c>
       <c r="D26">
-        <v>1.751264156820799</v>
+        <v>1.601567067922757</v>
       </c>
       <c r="E26">
-        <v>1.541524736078473</v>
+        <v>2.273365381475732</v>
       </c>
       <c r="F26">
-        <v>1.773979534654322</v>
+        <v>2.643909008538931</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.636126267389577</v>
+        <v>1.898355811450308</v>
       </c>
       <c r="C27">
-        <v>2.283206118875328</v>
+        <v>1.223323299731688</v>
       </c>
       <c r="D27">
-        <v>1.770372174940046</v>
+        <v>1.619686553855113</v>
       </c>
       <c r="E27">
-        <v>1.556020680919368</v>
+        <v>2.266326756712299</v>
       </c>
       <c r="F27">
-        <v>1.797051345846812</v>
+        <v>2.687211901709411</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.655182264075333</v>
+        <v>1.91176352830565</v>
       </c>
       <c r="C28">
-        <v>2.268213097375166</v>
+        <v>1.227483211727483</v>
       </c>
       <c r="D28">
-        <v>1.788792819150026</v>
+        <v>1.637369221316772</v>
       </c>
       <c r="E28">
-        <v>1.570032677540691</v>
+        <v>2.259241143289834</v>
       </c>
       <c r="F28">
-        <v>1.819580640599894</v>
+        <v>2.729168742136181</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.673849970653627</v>
+        <v>1.923894927891679</v>
       </c>
       <c r="C29">
-        <v>2.253281928573187</v>
+        <v>1.231357279304382</v>
       </c>
       <c r="D29">
-        <v>1.806540463358148</v>
+        <v>1.654616989580656</v>
       </c>
       <c r="E29">
-        <v>1.58356708855308</v>
+        <v>2.252121893850732</v>
       </c>
       <c r="F29">
-        <v>1.841574236707697</v>
+        <v>2.769813823997882</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.692131193127082</v>
+        <v>1.934803890042325</v>
       </c>
       <c r="C30">
-        <v>2.238415001582548</v>
+        <v>1.234949655725644</v>
       </c>
       <c r="D30">
-        <v>1.823629170791417</v>
+        <v>1.671431762169993</v>
       </c>
       <c r="E30">
-        <v>1.596630133609507</v>
+        <v>2.24497920620245</v>
       </c>
       <c r="F30">
-        <v>1.863038909926254</v>
+        <v>2.809180479606127</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.710027800866268</v>
+        <v>1.944544429729106</v>
       </c>
       <c r="C31">
-        <v>2.223614036935408</v>
+        <v>1.23826446192833</v>
       </c>
       <c r="D31">
-        <v>1.840072703877121</v>
+        <v>1.687815425266288</v>
       </c>
       <c r="E31">
-        <v>1.60922789039353</v>
+        <v>2.237820964428512</v>
       </c>
       <c r="F31">
-        <v>1.883981394015383</v>
+        <v>2.847301103533801</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.727541726009441</v>
+        <v>1.953170120078063</v>
       </c>
       <c r="C32">
-        <v>2.208880282350171</v>
+        <v>1.2413057775774</v>
       </c>
       <c r="D32">
-        <v>1.855884533535166</v>
+        <v>1.703769854796694</v>
       </c>
       <c r="E32">
-        <v>1.621366295381027</v>
+        <v>2.230653306580132</v>
       </c>
       <c r="F32">
-        <v>1.904408380725606</v>
+        <v>2.884207196514278</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.744674962797345</v>
+        <v>1.960733698226115</v>
       </c>
       <c r="C33">
-        <v>2.194214646653697</v>
+        <v>1.244077653581193</v>
       </c>
       <c r="D33">
-        <v>1.871077847934621</v>
+        <v>1.719296921113731</v>
       </c>
       <c r="E33">
-        <v>1.633051144394592</v>
+        <v>2.223481036940614</v>
       </c>
       <c r="F33">
-        <v>1.924326519722956</v>
+        <v>2.919929373400902</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.761429566844755</v>
+        <v>1.967286707492198</v>
       </c>
       <c r="C34">
-        <v>2.179617792651685</v>
+        <v>1.246584109713163</v>
       </c>
       <c r="D34">
-        <v>1.885665560762777</v>
+        <v>1.734398491280892</v>
       </c>
       <c r="E34">
-        <v>1.644288092970014</v>
+        <v>2.216307944540824</v>
       </c>
       <c r="F34">
-        <v>1.943742418459618</v>
+        <v>2.954497406318799</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.777807654355253</v>
+        <v>1.972879250503017</v>
       </c>
       <c r="C35">
-        <v>2.165090202389499</v>
+        <v>1.248829136281572</v>
       </c>
       <c r="D35">
-        <v>1.899660319048446</v>
+        <v>1.74907643454986</v>
       </c>
       <c r="E35">
-        <v>1.655082656553694</v>
+        <v>2.209137056371067</v>
       </c>
       <c r="F35">
-        <v>1.96266264200824</v>
+        <v>2.987940237293401</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.793811401274742</v>
+        <v>1.977559794389592</v>
       </c>
       <c r="C36">
-        <v>2.150632223489217</v>
+        <v>1.250816699522573</v>
       </c>
       <c r="D36">
-        <v>1.913074510578335</v>
+        <v>1.763332625258784</v>
       </c>
       <c r="E36">
-        <v>1.665440210552492</v>
+        <v>2.201970804248357</v>
       </c>
       <c r="F36">
-        <v>1.981093712855885</v>
+        <v>3.020286018152397</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.809443042393062</v>
+        <v>1.981375048745591</v>
       </c>
       <c r="C37">
-        <v>2.136244102523878</v>
+        <v>1.252550738568165</v>
       </c>
       <c r="D37">
-        <v>1.925920270940855</v>
+        <v>1.777168948441892</v>
       </c>
       <c r="E37">
-        <v>1.67536599025662</v>
+        <v>2.194811151068102</v>
       </c>
       <c r="F37">
-        <v>1.999042110663092</v>
+        <v>3.051562126324825</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.824704870390137</v>
+        <v>1.98436988149248</v>
       </c>
       <c r="C38">
-        <v>2.121926009256091</v>
+        <v>1.254035169502384</v>
       </c>
       <c r="D38">
-        <v>1.938209490228034</v>
+        <v>1.790587303736274</v>
       </c>
       <c r="E38">
-        <v>1.684865090660965</v>
+        <v>2.187659689394543</v>
       </c>
       <c r="F38">
-        <v>2.016514271990986</v>
+        <v>3.081795188335954</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.83959923483161</v>
+        <v>1.986587280646899</v>
       </c>
       <c r="C39">
-        <v>2.107678054439111</v>
+        <v>1.255273884785349</v>
       </c>
       <c r="D39">
-        <v>1.949953819423988</v>
+        <v>1.803589606200736</v>
       </c>
       <c r="E39">
-        <v>1.693942466209841</v>
+        <v>2.180517721695182</v>
       </c>
       <c r="F39">
-        <v>2.03351659000468</v>
+        <v>3.111011106010755</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.854128541117035</v>
+        <v>1.988068340491734</v>
       </c>
       <c r="C40">
-        <v>2.09350030301728</v>
+        <v>1.256270753258784</v>
       </c>
       <c r="D40">
-        <v>1.96116467650397</v>
+        <v>1.81617779034576</v>
       </c>
       <c r="E40">
-        <v>1.702602930493435</v>
+        <v>2.173386319213489</v>
       </c>
       <c r="F40">
-        <v>2.050055414155747</v>
+        <v>3.139235069925676</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.868295249378851</v>
+        <v>1.988852273443336</v>
       </c>
       <c r="C41">
-        <v>2.079392784003536</v>
+        <v>1.257029622787008</v>
       </c>
       <c r="D41">
-        <v>1.971853252267445</v>
+        <v>1.828353820830371</v>
       </c>
       <c r="E41">
-        <v>1.710851155928441</v>
+        <v>2.166266374988001</v>
       </c>
       <c r="F41">
-        <v>2.066137049845667</v>
+        <v>3.166491586159087</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.882101873340119</v>
+        <v>1.988976437591103</v>
       </c>
       <c r="C42">
-        <v>2.065355497932141</v>
+        <v>1.257554318806273</v>
       </c>
       <c r="D42">
-        <v>1.982030515925205</v>
+        <v>1.840119688713333</v>
       </c>
       <c r="E42">
-        <v>1.718691673458007</v>
+        <v>2.159158636298383</v>
       </c>
       <c r="F42">
-        <v>2.081767758075106</v>
+        <v>3.192804493338645</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.895550979127255</v>
+        <v>1.988476381498347</v>
       </c>
       <c r="C43">
-        <v>2.051388422547427</v>
+        <v>1.257848647019866</v>
       </c>
       <c r="D43">
-        <v>1.991707220458942</v>
+        <v>1.851477407183575</v>
       </c>
       <c r="E43">
-        <v>1.726128872310401</v>
+        <v>2.152063718545321</v>
       </c>
       <c r="F43">
-        <v>2.096953755081947</v>
+        <v>3.218196983826243</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.908645184044317</v>
+        <v>1.987385900095381</v>
       </c>
       <c r="C44">
-        <v>2.03749151714871</v>
+        <v>1.257916393174167</v>
       </c>
       <c r="D44">
-        <v>2.000893907770234</v>
+        <v>1.862429036325484</v>
       </c>
       <c r="E44">
-        <v>1.733166999861622</v>
+        <v>2.14498213727577</v>
       </c>
       <c r="F44">
-        <v>2.111701211971618</v>
+        <v>3.242691624287414</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.921387155309532</v>
+        <v>1.985737096567984</v>
       </c>
       <c r="C45">
-        <v>2.023664725952981</v>
+        <v>1.257761323777079</v>
       </c>
       <c r="D45">
-        <v>2.009600913633351</v>
+        <v>1.872976671845158</v>
       </c>
       <c r="E45">
-        <v>1.739810161653072</v>
+        <v>2.137914325594152</v>
       </c>
       <c r="F45">
-        <v>2.126016254341373</v>
+        <v>3.266310372217352</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.933779608754938</v>
+        <v>1.983560443978093</v>
       </c>
       <c r="C46">
-        <v>2.009907980725885</v>
+        <v>1.257387187069001</v>
       </c>
       <c r="D46">
-        <v>2.017838372466091</v>
+        <v>1.883122443334419</v>
       </c>
       <c r="E46">
-        <v>1.746062321621418</v>
+        <v>2.130860650372617</v>
       </c>
       <c r="F46">
-        <v>2.139904961901757</v>
+        <v>3.289074597616762</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.945825307494658</v>
+        <v>1.98088485393292</v>
       </c>
       <c r="C47">
-        <v>1.996221202832551</v>
+        <v>1.256797713807147</v>
       </c>
       <c r="D47">
-        <v>2.025616221930716</v>
+        <v>1.892868531690975</v>
       </c>
       <c r="E47">
-        <v>1.751927302605119</v>
+        <v>2.123821424724787</v>
       </c>
       <c r="F47">
-        <v>2.153373368097567</v>
+        <v>3.311005095934449</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.957527060559864</v>
+        <v>1.977737747556358</v>
       </c>
       <c r="C48">
-        <v>1.982604304863313</v>
+        <v>1.255996617967317</v>
       </c>
       <c r="D48">
-        <v>2.032944207376259</v>
+        <v>1.902217165792252</v>
       </c>
       <c r="E48">
-        <v>1.757408787198501</v>
+        <v>2.116796915474269</v>
       </c>
       <c r="F48">
-        <v>2.166427459730502</v>
+        <v>3.332122109693362</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.968887721506348</v>
+        <v>1.974145125252781</v>
       </c>
       <c r="C49">
-        <v>1.969057191922123</v>
+        <v>1.254987589959108</v>
       </c>
       <c r="D49">
-        <v>2.039831886132474</v>
+        <v>1.911170622031712</v>
       </c>
       <c r="E49">
-        <v>1.762510319048616</v>
+        <v>2.109787350461496</v>
       </c>
       <c r="F49">
-        <v>2.179073176585269</v>
+        <v>3.352445340420348</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.979910186994565</v>
+        <v>1.970131634552302</v>
       </c>
       <c r="C50">
-        <v>1.955579762658079</v>
+        <v>1.253774311296029</v>
       </c>
       <c r="D50">
-        <v>2.046288631664374</v>
+        <v>1.919731230028883</v>
       </c>
       <c r="E50">
-        <v>1.767235304658591</v>
+        <v>2.102792924790954</v>
       </c>
       <c r="F50">
-        <v>2.191316411061257</v>
+        <v>3.371993967541228</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.990597395344789</v>
+        <v>1.965720638416551</v>
       </c>
       <c r="C51">
-        <v>1.942171910094876</v>
+        <v>1.252360445844318</v>
       </c>
       <c r="D51">
-        <v>2.052323637596072</v>
+        <v>1.927901380404157</v>
       </c>
       <c r="E51">
-        <v>1.771587015827889</v>
+        <v>2.095813804693307</v>
       </c>
       <c r="F51">
-        <v>2.203163007811316</v>
+        <v>3.39078666278069</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.000952325070795</v>
+        <v>1.960934281798523</v>
       </c>
       <c r="C52">
-        <v>1.928833522300382</v>
+        <v>1.250749639229482</v>
       </c>
       <c r="D52">
-        <v>2.057945921611416</v>
+        <v>1.935683521331644</v>
       </c>
       <c r="E52">
-        <v>1.775568592826339</v>
+        <v>2.088850133275632</v>
       </c>
       <c r="F52">
-        <v>2.214618763389312</v>
+        <v>3.408841604107852</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.010977993391825</v>
+        <v>1.955793558261867</v>
       </c>
       <c r="C53">
-        <v>1.915564482935169</v>
+        <v>1.248945512096511</v>
       </c>
       <c r="D53">
-        <v>2.063164329238495</v>
+        <v>1.943080158243978</v>
       </c>
       <c r="E53">
-        <v>1.77918304842731</v>
+        <v>2.081902034020305</v>
       </c>
       <c r="F53">
-        <v>2.225689425907722</v>
+        <v>3.426176493452018</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.020677454727759</v>
+        <v>1.950318366595211</v>
       </c>
       <c r="C54">
-        <v>1.902364671703701</v>
+        <v>1.246951682827088</v>
       </c>
       <c r="D54">
-        <v>2.067987537524357</v>
+        <v>1.950093869113433</v>
       </c>
       <c r="E54">
-        <v>1.782433272932787</v>
+        <v>2.074969613856344</v>
       </c>
       <c r="F54">
-        <v>2.236380694706326</v>
+        <v>3.442808566569875</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.030053799177142</v>
+        <v>1.944527577339687</v>
       </c>
       <c r="C55">
-        <v>1.889233964713547</v>
+        <v>1.244771750355564</v>
       </c>
       <c r="D55">
-        <v>2.07242405860566</v>
+        <v>1.956727298406398</v>
       </c>
       <c r="E55">
-        <v>1.785322040330677</v>
+        <v>2.068052966351849</v>
       </c>
       <c r="F55">
-        <v>2.246698220033821</v>
+        <v>3.458754611239087</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.039110150981679</v>
+        <v>1.938439081735039</v>
       </c>
       <c r="C56">
-        <v>1.876172234783093</v>
+        <v>1.242409290288815</v>
       </c>
       <c r="D56">
-        <v>2.076482243180736</v>
+        <v>1.962983150546568</v>
       </c>
       <c r="E56">
-        <v>1.787852015729004</v>
+        <v>2.061152171540453</v>
       </c>
       <c r="F56">
-        <v>2.256647602742688</v>
+        <v>3.474030976093657</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.047849666978966</v>
+        <v>1.932069847738353</v>
       </c>
       <c r="C57">
-        <v>1.863179351696326</v>
+        <v>1.239867861859454</v>
       </c>
       <c r="D57">
-        <v>2.08017028388784</v>
+        <v>1.96886421298089</v>
       </c>
       <c r="E57">
-        <v>1.790025764221945</v>
+        <v>2.054267300094287</v>
       </c>
       <c r="F57">
-        <v>2.266234393998765</v>
+        <v>3.488653587352605</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.056275535044818</v>
+        <v>1.925435976201252</v>
       </c>
       <c r="C58">
-        <v>1.850255182415707</v>
+        <v>1.237151016094534</v>
       </c>
       <c r="D58">
-        <v>2.083496218594175</v>
+        <v>1.97437334613097</v>
       </c>
       <c r="E58">
-        <v>1.791845761329541</v>
+        <v>2.047398411401093</v>
       </c>
       <c r="F58">
-        <v>2.275464095005511</v>
+        <v>3.502637957996884</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.064390972528377</v>
+        <v>1.918552736142616</v>
       </c>
       <c r="C59">
-        <v>1.837399591258521</v>
+        <v>1.234262284976173</v>
       </c>
       <c r="D59">
-        <v>2.08646793359968</v>
+        <v>1.9795134801251</v>
       </c>
       <c r="E59">
-        <v>1.79331440516111</v>
+        <v>2.040545557748947</v>
       </c>
       <c r="F59">
-        <v>2.284342156744639</v>
+        <v>3.515999201946015</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.072199224680789</v>
+        <v>1.911434629606649</v>
       </c>
       <c r="C60">
-        <v>1.82461244004879</v>
+        <v>1.231205174705231</v>
       </c>
       <c r="D60">
-        <v>2.089093166758755</v>
+        <v>1.984287624813172</v>
       </c>
       <c r="E60">
-        <v>1.794434030424477</v>
+        <v>2.033708783107552</v>
       </c>
       <c r="F60">
-        <v>2.292873979733288</v>
+        <v>3.528752044895161</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.07970356308028</v>
+        <v>1.904095415195199</v>
       </c>
       <c r="C61">
-        <v>1.811893588246446</v>
+        <v>1.227983183198487</v>
       </c>
       <c r="D61">
-        <v>2.091379510524945</v>
+        <v>1.988698876282838</v>
       </c>
       <c r="E61">
-        <v>1.795206924387385</v>
+        <v>2.026888125740036</v>
       </c>
       <c r="F61">
-        <v>2.301064913798186</v>
+        <v>3.540910834888674</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.086907284055125</v>
+        <v>1.896548166210798</v>
       </c>
       <c r="C62">
-        <v>1.799242893056542</v>
+        <v>1.224599790413408</v>
       </c>
       <c r="D62">
-        <v>2.093334414924519</v>
+        <v>1.992750407497366</v>
       </c>
       <c r="E62">
-        <v>1.795635344865596</v>
+        <v>2.02008361844978</v>
       </c>
       <c r="F62">
-        <v>2.308920257867654</v>
+        <v>3.552489555538566</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.093813707106455</v>
+        <v>1.888805297476442</v>
       </c>
       <c r="C63">
-        <v>1.786660209524649</v>
+        <v>1.221058458022169</v>
       </c>
       <c r="D63">
-        <v>2.094965190448814</v>
+        <v>1.996445466523589</v>
       </c>
       <c r="E63">
-        <v>1.795721540255324</v>
+        <v>2.01329528788392</v>
       </c>
       <c r="F63">
-        <v>2.316445259780521</v>
+        <v>3.563501833385425</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.100426173332777</v>
+        <v>1.880878606105342</v>
       </c>
       <c r="C64">
-        <v>1.774145390618677</v>
+        <v>1.217362625870191</v>
       </c>
       <c r="D64">
-        <v>2.096279010885424</v>
+        <v>1.999787398931012</v>
       </c>
       <c r="E64">
-        <v>1.795467771586349</v>
+        <v>2.006523158039458</v>
       </c>
       <c r="F64">
-        <v>2.323645116114434</v>
+        <v>3.573960951196924</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.106748043858049</v>
+        <v>1.872779309887177</v>
       </c>
       <c r="C65">
-        <v>1.76169828730078</v>
+        <v>1.213515721755054</v>
       </c>
       <c r="D65">
-        <v>2.097282916080786</v>
+        <v>2.002779632991224</v>
       </c>
       <c r="E65">
-        <v>1.794876336481344</v>
+        <v>1.999767251186083</v>
       </c>
       <c r="F65">
-        <v>2.33052497203193</v>
+        <v>3.583879853566594</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.112782698264869</v>
+        <v>1.864518068208907</v>
       </c>
       <c r="C66">
-        <v>1.749318748590154</v>
+        <v>1.209521153884864</v>
       </c>
       <c r="D66">
-        <v>2.097983814640324</v>
+        <v>2.005425666844816</v>
       </c>
       <c r="E66">
-        <v>1.793949594838077</v>
+        <v>1.993027582159915</v>
       </c>
       <c r="F66">
-        <v>2.33708992114533</v>
+        <v>3.593271165248061</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.118533533034699</v>
+        <v>1.856105028225101</v>
       </c>
       <c r="C67">
-        <v>1.73700662161857</v>
+        <v>1.205382310681603</v>
       </c>
       <c r="D67">
-        <v>2.098388486562514</v>
+        <v>2.007729104847224</v>
       </c>
       <c r="E67">
-        <v>1.792689995948711</v>
+        <v>1.986304162875873</v>
       </c>
       <c r="F67">
-        <v>2.343345005400225</v>
+        <v>3.602147189802005</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.124003959996757</v>
+        <v>1.847549836892073</v>
       </c>
       <c r="C68">
-        <v>1.724761751679995</v>
+        <v>1.201102560946728</v>
       </c>
       <c r="D68">
-        <v>2.09850358581811</v>
+        <v>2.009693635452476</v>
       </c>
       <c r="E68">
-        <v>1.791100106669258</v>
+        <v>1.979597010408237</v>
       </c>
       <c r="F68">
-        <v>2.349295214977257</v>
+        <v>3.610519924039957</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.129197404786789</v>
+        <v>1.838861681715045</v>
       </c>
       <c r="C69">
-        <v>1.712583982274692</v>
+        <v>1.196685257549426</v>
       </c>
       <c r="D69">
-        <v>2.098335642867705</v>
+        <v>2.011323022295289</v>
       </c>
       <c r="E69">
-        <v>1.78918264015638</v>
+        <v>1.972906135484763</v>
       </c>
       <c r="F69">
-        <v>2.354945488213427</v>
+        <v>3.618401077445974</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.134117305318181</v>
+        <v>1.830049306744852</v>
       </c>
       <c r="C70">
-        <v>1.700473155149356</v>
+        <v>1.192133733316475</v>
       </c>
       <c r="D70">
-        <v>2.097891067125694</v>
+        <v>2.012621123941705</v>
       </c>
       <c r="E70">
-        <v>1.78694048458448</v>
+        <v>1.966231537332314</v>
       </c>
       <c r="F70">
-        <v>2.360300711541555</v>
+        <v>3.625802050515283</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.138767110265535</v>
+        <v>1.821121039771372</v>
       </c>
       <c r="C71">
-        <v>1.688429110333304</v>
+        <v>1.187451298366227</v>
       </c>
       <c r="D71">
-        <v>2.097176149368242</v>
+        <v>2.013591893572968</v>
       </c>
       <c r="E71">
-        <v>1.784376731171053</v>
+        <v>1.959573228510286</v>
       </c>
       <c r="F71">
-        <v>2.365365719448683</v>
+        <v>3.632733978870413</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.143150277563688</v>
+        <v>1.812084817598649</v>
       </c>
       <c r="C72">
-        <v>1.676451686171719</v>
+        <v>1.18264124502798</v>
       </c>
       <c r="D72">
-        <v>2.096197064089455</v>
+        <v>2.014239363054812</v>
       </c>
       <c r="E72">
-        <v>1.781494700793136</v>
+        <v>1.952931216173156</v>
       </c>
       <c r="F72">
-        <v>2.370145294452303</v>
+        <v>3.639207724051156</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.147270272922439</v>
+        <v>1.802948199112132</v>
       </c>
       <c r="C73">
-        <v>1.664540719356267</v>
+        <v>1.17770684590783</v>
       </c>
       <c r="D73">
-        <v>2.094959871805931</v>
+        <v>2.01456764214995</v>
       </c>
       <c r="E73">
-        <v>1.778297968424573</v>
+        <v>1.946305494346148</v>
       </c>
       <c r="F73">
-        <v>2.374644167095294</v>
+        <v>3.645233865797646</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.151130568358506</v>
+        <v>1.793718395774706</v>
       </c>
       <c r="C74">
-        <v>1.652696044953416</v>
+        <v>1.172651352315939</v>
       </c>
       <c r="D74">
-        <v>2.093470521311064</v>
+        <v>2.014580945333342</v>
       </c>
       <c r="E74">
-        <v>1.774790384644551</v>
+        <v>1.939696068432377</v>
       </c>
       <c r="F74">
-        <v>2.378867015958986</v>
+        <v>3.650822743475152</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.154734640746896</v>
+        <v>1.784402279209181</v>
       </c>
       <c r="C75">
-        <v>1.640917496430997</v>
+        <v>1.167477990605856</v>
       </c>
       <c r="D75">
-        <v>2.09173485188178</v>
+        <v>2.014283566528278</v>
       </c>
       <c r="E75">
-        <v>1.770976093509926</v>
+        <v>1.933102938966488</v>
       </c>
       <c r="F75">
-        <v>2.382818467693845</v>
+        <v>3.655984437734468</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.158085970391072</v>
+        <v>1.7750064077705</v>
       </c>
       <c r="C76">
-        <v>1.62920490568304</v>
+        <v>1.16218996986374</v>
       </c>
       <c r="D76">
-        <v>2.089758595436587</v>
+        <v>2.013679860641373</v>
       </c>
       <c r="E76">
-        <v>1.76685954617507</v>
+        <v>1.926526102414726</v>
       </c>
       <c r="F76">
-        <v>2.386503097068096</v>
+        <v>3.660728780512335</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.161188039615366</v>
+        <v>1.76553703704861</v>
       </c>
       <c r="C77">
-        <v>1.61755810305336</v>
+        <v>1.15679047578188</v>
       </c>
       <c r="D77">
-        <v>2.087547378649219</v>
+        <v>2.012774292446452</v>
       </c>
       <c r="E77">
-        <v>1.762445509770157</v>
+        <v>1.919965555850317</v>
       </c>
       <c r="F77">
-        <v>2.389925427032547</v>
+        <v>3.665065375849895</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2.164044331378665</v>
+        <v>1.756000137291486</v>
       </c>
       <c r="C78">
-        <v>1.605976917357923</v>
+        <v>1.151282670916738</v>
       </c>
       <c r="D78">
-        <v>2.085106725015463</v>
+        <v>2.011571401661658</v>
       </c>
       <c r="E78">
-        <v>1.757739071212089</v>
+        <v>1.913421295637531</v>
       </c>
       <c r="F78">
-        <v>2.393089928803624</v>
+        <v>3.669003589393342</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.166658327911573</v>
+        <v>1.746401410211111</v>
       </c>
       <c r="C79">
-        <v>1.594461175906261</v>
+        <v>1.145669693746899</v>
       </c>
       <c r="D79">
-        <v>2.08244205687827</v>
+        <v>2.010075784925186</v>
       </c>
       <c r="E79">
-        <v>1.752745635804871</v>
+        <v>1.906893317019824</v>
       </c>
       <c r="F79">
-        <v>2.39600102196232</v>
+        <v>3.672552565765685</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2.169033509378177</v>
+        <v>1.736746297269563</v>
       </c>
       <c r="C80">
-        <v>1.583010704522071</v>
+        <v>1.139954661235389</v>
       </c>
       <c r="D80">
-        <v>2.079558697407773</v>
+        <v>2.008292131206699</v>
       </c>
       <c r="E80">
-        <v>1.747470920675684</v>
+        <v>1.900381614578304</v>
       </c>
       <c r="F80">
-        <v>2.398663074569603</v>
+        <v>3.675721235015718</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.171173352561797</v>
+        <v>1.72703999960061</v>
       </c>
       <c r="C81">
-        <v>1.571625327563078</v>
+        <v>1.13414066586463</v>
       </c>
       <c r="D81">
-        <v>2.07646187254192</v>
+        <v>2.006225206879332</v>
       </c>
       <c r="E81">
-        <v>1.741920943282969</v>
+        <v>1.893886182056813</v>
       </c>
       <c r="F81">
-        <v>2.401080403297652</v>
+        <v>3.67851830644752</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2.173081329578176</v>
+        <v>1.717287483179941</v>
       </c>
       <c r="C82">
-        <v>1.56030486794034</v>
+        <v>1.128230775275134</v>
       </c>
       <c r="D82">
-        <v>2.073156712883797</v>
+        <v>2.003879835889715</v>
       </c>
       <c r="E82">
-        <v>1.736102005401029</v>
+        <v>1.887407012687986</v>
       </c>
       <c r="F82">
-        <v>2.403257273576143</v>
+        <v>3.680952292894884</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.174760906613851</v>
+        <v>1.707493495971272</v>
       </c>
       <c r="C83">
-        <v>1.549049147137022</v>
+        <v>1.12222803259011</v>
       </c>
       <c r="D83">
-        <v>2.06964825556155</v>
+        <v>2.001260903391167</v>
       </c>
       <c r="E83">
-        <v>1.730020673124395</v>
+        <v>1.880944098921195</v>
       </c>
       <c r="F83">
-        <v>2.405197899754333</v>
+        <v>3.683031503934896</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2.176215542693117</v>
+        <v>1.697662575130451</v>
       </c>
       <c r="C84">
-        <v>1.537857985226777</v>
+        <v>1.11613545608895</v>
       </c>
       <c r="D84">
-        <v>2.065941446046755</v>
+        <v>1.998373377992334</v>
       </c>
       <c r="E84">
-        <v>1.723683753541591</v>
+        <v>1.874497433342121</v>
       </c>
       <c r="F84">
-        <v>2.406906445277347</v>
+        <v>3.684764048555048</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.177448688472847</v>
+        <v>1.687799058193722</v>
       </c>
       <c r="C85">
-        <v>1.526731200891754</v>
+        <v>1.109956038328172</v>
       </c>
       <c r="D85">
-        <v>2.062041139937065</v>
+        <v>1.995222280739867</v>
       </c>
       <c r="E85">
-        <v>1.717098268791309</v>
+        <v>1.868067008098173</v>
       </c>
       <c r="F85">
-        <v>2.408387022876957</v>
+        <v>3.686157855170578</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2.178463785065357</v>
+        <v>1.677907094381744</v>
       </c>
       <c r="C86">
-        <v>1.51566861144032</v>
+        <v>1.103692745640645</v>
       </c>
       <c r="D86">
-        <v>2.057952104699304</v>
+        <v>1.991812667988405</v>
       </c>
       <c r="E86">
-        <v>1.710271428238578</v>
+        <v>1.861652811473472</v>
       </c>
       <c r="F86">
-        <v>2.409643694775752</v>
+        <v>3.687220661829712</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.179264262892073</v>
+        <v>1.66799064999836</v>
       </c>
       <c r="C87">
-        <v>1.504670032824551</v>
+        <v>1.097348518171379</v>
       </c>
       <c r="D87">
-        <v>2.053679021377733</v>
+        <v>1.988149677004871</v>
       </c>
       <c r="E87">
-        <v>1.703210599496126</v>
+        <v>1.855254835644684</v>
       </c>
       <c r="F87">
-        <v>2.410680472904916</v>
+        <v>3.687960026755066</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2.17985354056508</v>
+        <v>1.658053521532659</v>
       </c>
       <c r="C88">
-        <v>1.493735279657505</v>
+        <v>1.090926269136068</v>
       </c>
       <c r="D88">
-        <v>2.049226486265388</v>
+        <v>1.984238487970807</v>
       </c>
       <c r="E88">
-        <v>1.695923278973316</v>
+        <v>1.848873071510166</v>
       </c>
       <c r="F88">
-        <v>2.411501319135051</v>
+        <v>3.688383338921614</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2.180235023800716</v>
+        <v>1.648099339308812</v>
       </c>
       <c r="C89">
-        <v>1.482864165230352</v>
+        <v>1.084428884500279</v>
       </c>
       <c r="D89">
-        <v>2.044599012540985</v>
+        <v>1.980084301838752</v>
       </c>
       <c r="E89">
-        <v>1.688417062567996</v>
+        <v>1.84250751011395</v>
       </c>
       <c r="F89">
-        <v>2.412110145519271</v>
+        <v>3.688497809520504</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2.180412104362757</v>
+        <v>1.638131578665431</v>
       </c>
       <c r="C90">
-        <v>1.472056501529369</v>
+        <v>1.077859222616694</v>
       </c>
       <c r="D90">
-        <v>2.039801031871374</v>
+        <v>1.975692381839835</v>
       </c>
       <c r="E90">
-        <v>1.680699617034441</v>
+        <v>1.836158142593548</v>
       </c>
       <c r="F90">
-        <v>2.412510814548606</v>
+        <v>3.68831049037329</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2.180388159036529</v>
+        <v>1.628153564993116</v>
       </c>
       <c r="C91">
-        <v>1.461312099252837</v>
+        <v>1.071220113622861</v>
       </c>
       <c r="D91">
-        <v>2.034836895980138</v>
+        <v>1.971068024762028</v>
       </c>
       <c r="E91">
-        <v>1.672778652468846</v>
+        <v>1.82982495023545</v>
       </c>
       <c r="F91">
-        <v>2.412707139418224</v>
+        <v>3.687828271886251</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2.180166548635297</v>
+        <v>1.61816848104413</v>
       </c>
       <c r="C92">
-        <v>1.450630767827867</v>
+        <v>1.064514359161473</v>
       </c>
       <c r="D92">
-        <v>2.029710878183867</v>
+        <v>1.966216546289035</v>
       </c>
       <c r="E92">
-        <v>1.664661896260776</v>
+        <v>1.823507926866536</v>
       </c>
       <c r="F92">
-        <v>2.412702884305668</v>
+        <v>3.68705788260765</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2.179750617036392</v>
+        <v>1.608179374636236</v>
       </c>
       <c r="C93">
-        <v>1.44001231542716</v>
+        <v>1.057744732216113</v>
       </c>
       <c r="D93">
-        <v>2.024427174895294</v>
+        <v>1.961143286985449</v>
       </c>
       <c r="E93">
-        <v>1.656357068769091</v>
+        <v>1.817207062008056</v>
       </c>
       <c r="F93">
-        <v>2.412501764659255</v>
+        <v>3.686005905016658</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2.17914369025091</v>
+        <v>1.598189162285888</v>
       </c>
       <c r="C94">
-        <v>1.429456548985752</v>
+        <v>1.050913976482135</v>
       </c>
       <c r="D94">
-        <v>2.018989907095962</v>
+        <v>1.95585361967393</v>
       </c>
       <c r="E94">
-        <v>1.647871860897042</v>
+        <v>1.810922345395297</v>
       </c>
       <c r="F94">
-        <v>2.412107447496848</v>
+        <v>3.684678770164439</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2.178349075523601</v>
+        <v>1.5882006379368</v>
       </c>
       <c r="C95">
-        <v>1.418963274217718</v>
+        <v>1.04402480567355</v>
       </c>
       <c r="D95">
-        <v>2.013403121776607</v>
+        <v>1.950352925935495</v>
       </c>
       <c r="E95">
-        <v>1.639213913668319</v>
+        <v>1.804653766955003</v>
       </c>
       <c r="F95">
-        <v>2.411523551714375</v>
+        <v>3.683082762578647</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.17737006046536</v>
+        <v>1.578216475615977</v>
       </c>
       <c r="C96">
-        <v>1.408532295632879</v>
+        <v>1.03707990348552</v>
       </c>
       <c r="D96">
-        <v>2.007670793348669</v>
+        <v>1.944646586852445</v>
       </c>
       <c r="E96">
-        <v>1.630390799842305</v>
+        <v>1.79840130566855</v>
       </c>
       <c r="F96">
-        <v>2.410753648403383</v>
+        <v>3.681224030919832</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.176209912217856</v>
+        <v>1.568239235743573</v>
       </c>
       <c r="C97">
-        <v>1.398163416553514</v>
+        <v>1.030081924129323</v>
       </c>
       <c r="D97">
-        <v>2.001796825024477</v>
+        <v>1.938740003635799</v>
       </c>
       <c r="E97">
-        <v>1.62141000755588</v>
+        <v>1.792164954401099</v>
       </c>
       <c r="F97">
-        <v>2.409801261177941</v>
+        <v>3.679108581906037</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.174871876648772</v>
+        <v>1.558271370045483</v>
       </c>
       <c r="C98">
-        <v>1.387856439131079</v>
+        <v>1.02303349014532</v>
       </c>
       <c r="D98">
-        <v>1.995785050169964</v>
+        <v>1.932638573563629</v>
       </c>
       <c r="E98">
-        <v>1.61227892593728</v>
+        <v>1.785944700988032</v>
       </c>
       <c r="F98">
-        <v>2.408669866509695</v>
+        <v>3.676742290941667</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.17335917758075</v>
+        <v>1.548315230197529</v>
       </c>
       <c r="C99">
-        <v>1.377611164362957</v>
+        <v>1.015937192979632</v>
       </c>
       <c r="D99">
-        <v>1.989639233627082</v>
+        <v>1.926347681740771</v>
       </c>
       <c r="E99">
-        <v>1.60300483260798</v>
+        <v>1.779740533242356</v>
       </c>
       <c r="F99">
-        <v>2.407362894071085</v>
+        <v>3.674130905314276</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.171675016049853</v>
+        <v>1.538373059163115</v>
       </c>
       <c r="C100">
-        <v>1.367427392109228</v>
+        <v>1.008795592790913</v>
       </c>
       <c r="D100">
-        <v>1.983363073009982</v>
+        <v>1.91987270743747</v>
       </c>
       <c r="E100">
-        <v>1.593594882966032</v>
+        <v>1.773552438978149</v>
       </c>
       <c r="F100">
-        <v>2.405883727085941</v>
+        <v>3.6712800401029</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.16982256959739</v>
+        <v>1.528447016537519</v>
       </c>
       <c r="C101">
-        <v>1.357304921109475</v>
+        <v>1.001611219215917</v>
       </c>
       <c r="D101">
-        <v>1.976960199971989</v>
+        <v>1.913219012698428</v>
       </c>
       <c r="E101">
-        <v>1.58405610113056</v>
+        <v>1.767380400118659</v>
       </c>
       <c r="F101">
-        <v>2.404235702687346</v>
+        <v>3.668195192544142</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2.167804991592293</v>
+        <v>1.51853916706038</v>
       </c>
       <c r="C102">
-        <v>1.347243548999632</v>
+        <v>0.9943865681209251</v>
       </c>
       <c r="D102">
-        <v>1.970434181447391</v>
+        <v>1.906391938929862</v>
       </c>
       <c r="E102">
-        <v>1.574395372400241</v>
+        <v>1.761224405660043</v>
       </c>
       <c r="F102">
-        <v>2.402422112282367</v>
+        <v>3.66488173784425</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2.165625410584224</v>
+        <v>1.508651479949455</v>
       </c>
       <c r="C103">
-        <v>1.337243072328876</v>
+        <v>0.9871241033914386</v>
       </c>
       <c r="D103">
-        <v>1.963788520865313</v>
+        <v>1.899396800437595</v>
       </c>
       <c r="E103">
-        <v>1.564619437140074</v>
+        <v>1.755084441803205</v>
       </c>
       <c r="F103">
-        <v>2.400446201923</v>
+        <v>3.661344931293863</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2.163286929688963</v>
+        <v>1.498785854561831</v>
       </c>
       <c r="C104">
-        <v>1.327303286576553</v>
+        <v>0.9798262568942738</v>
       </c>
       <c r="D104">
-        <v>1.957026659338979</v>
+        <v>1.892238884611553</v>
       </c>
       <c r="E104">
-        <v>1.554734885908942</v>
+        <v>1.748960494547439</v>
       </c>
       <c r="F104">
-        <v>2.398311172683217</v>
+        <v>3.65758991834755</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2.160792626002475</v>
+        <v>1.488944098569366</v>
       </c>
       <c r="C105">
-        <v>1.317423986169166</v>
+        <v>0.972495428017903</v>
       </c>
       <c r="D105">
-        <v>1.950151976828816</v>
+        <v>1.884923440740485</v>
       </c>
       <c r="E105">
-        <v>1.544748155730732</v>
+        <v>1.74285254969974</v>
       </c>
       <c r="F105">
-        <v>2.396020181041234</v>
+        <v>3.6536217302778</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2.15814555004716</v>
+        <v>1.479127945416466</v>
       </c>
       <c r="C106">
-        <v>1.307604964497402</v>
+        <v>0.9651339815367574</v>
       </c>
       <c r="D106">
-        <v>1.943167793281177</v>
+        <v>1.877455680195699</v>
       </c>
       <c r="E106">
-        <v>1.534665527381694</v>
+        <v>1.736760592457355</v>
       </c>
       <c r="F106">
-        <v>2.393576339267351</v>
+        <v>3.649445289879702</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2.155348725246788</v>
+        <v>1.469339058587269</v>
       </c>
       <c r="C107">
-        <v>1.297846013933215</v>
+        <v>0.9577442490753685</v>
       </c>
       <c r="D107">
-        <v>1.936077369742627</v>
+        <v>1.869840770297427</v>
       </c>
       <c r="E107">
-        <v>1.524493123574136</v>
+        <v>1.730684608338066</v>
       </c>
       <c r="F107">
-        <v>2.390982715816405</v>
+        <v>3.645065416842885</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2.152405147431261</v>
+        <v>1.459579021594833</v>
       </c>
       <c r="C108">
-        <v>1.288146925846953</v>
+        <v>0.9503285300912934</v>
       </c>
       <c r="D108">
-        <v>1.928883909450191</v>
+        <v>1.862083829299713</v>
       </c>
       <c r="E108">
-        <v>1.514236907932686</v>
+        <v>1.724624582490763</v>
       </c>
       <c r="F108">
-        <v>2.388242335724704</v>
+        <v>3.64048682359975</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2.149317784371242</v>
+        <v>1.449849357042761</v>
       </c>
       <c r="C109">
-        <v>1.278507490624541</v>
+        <v>0.9428890889650369</v>
       </c>
       <c r="D109">
-        <v>1.921590558898675</v>
+        <v>1.854189925561902</v>
       </c>
       <c r="E109">
-        <v>1.503902684662548</v>
+        <v>1.718580499879511</v>
       </c>
       <c r="F109">
-        <v>2.385358181011058</v>
+        <v>3.635714125518132</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2.146089575340065</v>
+        <v>1.440151519013458</v>
       </c>
       <c r="C110">
-        <v>1.268927497684718</v>
+        <v>0.9354281554970801</v>
       </c>
       <c r="D110">
-        <v>1.914200408884434</v>
+        <v>1.846164068157769</v>
       </c>
       <c r="E110">
-        <v>1.493496098819359</v>
+        <v>1.712552345292546</v>
       </c>
       <c r="F110">
-        <v>2.382333191081405</v>
+        <v>3.630751839609062</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2.142723430705705</v>
+        <v>1.43048689684808</v>
       </c>
       <c r="C111">
-        <v>1.259406735496312</v>
+        <v>0.9279479253295089</v>
       </c>
       <c r="D111">
-        <v>1.90671649552752</v>
+        <v>1.838011209615056</v>
       </c>
       <c r="E111">
-        <v>1.483022637098562</v>
+        <v>1.706540104166584</v>
       </c>
       <c r="F111">
-        <v>2.379170263137051</v>
+        <v>3.625604384377316</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>2.139222231548913</v>
+        <v>1.420856823068191</v>
       </c>
       <c r="C112">
-        <v>1.249944991595573</v>
+        <v>0.9204505617305824</v>
       </c>
       <c r="D112">
-        <v>1.899141801270877</v>
+        <v>1.829736237374294</v>
       </c>
       <c r="E112">
-        <v>1.472487629070328</v>
+        <v>1.700543760844415</v>
       </c>
       <c r="F112">
-        <v>2.375872252585856</v>
+        <v>3.620276088807768</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>2.135588829309704</v>
+        <v>1.411262567552126</v>
       </c>
       <c r="C113">
-        <v>1.240542052603551</v>
+        <v>0.9129381905343902</v>
       </c>
       <c r="D113">
-        <v>1.891479255859057</v>
+        <v>1.821343971929959</v>
       </c>
       <c r="E113">
-        <v>1.461896248793412</v>
+        <v>1.694563299888522</v>
       </c>
       <c r="F113">
-        <v>2.372441973456204</v>
+        <v>3.614771189234804</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2.131826045460518</v>
+        <v>1.401705346738469</v>
       </c>
       <c r="C114">
-        <v>1.231197704243522</v>
+        <v>0.9054129033419844</v>
       </c>
       <c r="D114">
-        <v>1.88373173729468</v>
+        <v>1.812839168154234</v>
       </c>
       <c r="E114">
-        <v>1.451253516749474</v>
+        <v>1.688598705777767</v>
       </c>
       <c r="F114">
-        <v>2.368882198813358</v>
+        <v>3.609093832254109</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>2.127936671204854</v>
+        <v>1.392186323920904</v>
       </c>
       <c r="C115">
-        <v>1.221911731358453</v>
+        <v>0.8978767572829611</v>
       </c>
       <c r="D115">
-        <v>1.875902072775408</v>
+        <v>1.804226503253241</v>
       </c>
       <c r="E115">
-        <v>1.440564302044549</v>
+        <v>1.682649962908672</v>
       </c>
       <c r="F115">
-        <v>2.365195661177971</v>
+        <v>3.603248080591736</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2.123923467203102</v>
+        <v>1.382706605718882</v>
       </c>
       <c r="C116">
-        <v>1.212683917928512</v>
+        <v>0.8903317754424773</v>
       </c>
       <c r="D116">
-        <v>1.867993039609425</v>
+        <v>1.795510586437562</v>
       </c>
       <c r="E116">
-        <v>1.429833324831606</v>
+        <v>1.676717055166277</v>
       </c>
       <c r="F116">
-        <v>2.361385052946471</v>
+        <v>3.597237909910435</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2.119789163321786</v>
+        <v>1.373267253864752</v>
       </c>
       <c r="C117">
-        <v>1.203514047088625</v>
+        <v>0.8827799434267772</v>
       </c>
       <c r="D117">
-        <v>1.860007366112322</v>
+        <v>1.786695944995979</v>
       </c>
       <c r="E117">
-        <v>1.419065158913281</v>
+        <v>1.670799966870869</v>
       </c>
       <c r="F117">
-        <v>2.357453026812974</v>
+        <v>3.591067214752719</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>2.115536458408971</v>
+        <v>1.363869279142405</v>
       </c>
       <c r="C118">
-        <v>1.194401901146058</v>
+        <v>0.875223211947471</v>
       </c>
       <c r="D118">
-        <v>1.851947732483285</v>
+        <v>1.777787028906947</v>
       </c>
       <c r="E118">
-        <v>1.408264234488476</v>
+        <v>1.664898682102441</v>
       </c>
       <c r="F118">
-        <v>2.353402196192486</v>
+        <v>3.584739810216967</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2.111168020092873</v>
+        <v>1.354513644643925</v>
       </c>
       <c r="C119">
-        <v>1.185347261598046</v>
+        <v>0.8676634977409566</v>
       </c>
       <c r="D119">
-        <v>1.843816771663466</v>
+        <v>1.768788209890536</v>
       </c>
       <c r="E119">
-        <v>1.397434841012302</v>
+        <v>1.659013184866058</v>
       </c>
       <c r="F119">
-        <v>2.349235135645076</v>
+        <v>3.578259430098525</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2.106686484603796</v>
+        <v>1.345201271695843</v>
       </c>
       <c r="C120">
-        <v>1.176349909149447</v>
+        <v>0.8601026813208492</v>
       </c>
       <c r="D120">
-        <v>1.8356170701746</v>
+        <v>1.759703772381808</v>
       </c>
       <c r="E120">
-        <v>1.386581130141297</v>
+        <v>1.653143459109929</v>
       </c>
       <c r="F120">
-        <v>2.344954381300875</v>
+        <v>3.571629734565171</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>2.102094456619803</v>
+        <v>1.335933034640283</v>
       </c>
       <c r="C121">
-        <v>1.167409623730438</v>
+        <v>0.8525426064877961</v>
       </c>
       <c r="D121">
-        <v>1.827351168940234</v>
+        <v>1.750537923938521</v>
       </c>
       <c r="E121">
-        <v>1.375707118740369</v>
+        <v>1.647289487647068</v>
       </c>
       <c r="F121">
-        <v>2.340562431285544</v>
+        <v>3.564854308083107</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2.097394509133279</v>
+        <v>1.326709768607697</v>
       </c>
       <c r="C122">
-        <v>1.15852618451422</v>
+        <v>0.844985081552496</v>
       </c>
       <c r="D122">
-        <v>1.819021564088496</v>
+        <v>1.741294780933803</v>
       </c>
       <c r="E122">
-        <v>1.364816691931104</v>
+        <v>1.641451254452202</v>
       </c>
       <c r="F122">
-        <v>2.336061746146031</v>
+        <v>3.557936660713074</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2.092589183340538</v>
+        <v>1.31753226819013</v>
       </c>
       <c r="C123">
-        <v>1.149699369934769</v>
+        <v>0.8374318819015041</v>
       </c>
       <c r="D123">
-        <v>1.810630707737661</v>
+        <v>1.731978377355131</v>
       </c>
       <c r="E123">
-        <v>1.353913606163613</v>
+        <v>1.63562874301929</v>
       </c>
       <c r="F123">
-        <v>2.331454749276349</v>
+        <v>3.550880233636831</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2.08768098855141</v>
+        <v>1.308401287108332</v>
       </c>
       <c r="C124">
-        <v>1.140928957704596</v>
+        <v>0.8298847439134194</v>
       </c>
       <c r="D124">
-        <v>1.802181008764505</v>
+        <v>1.722592661447399</v>
       </c>
       <c r="E124">
-        <v>1.34300149229689</v>
+        <v>1.62982193671639</v>
       </c>
       <c r="F124">
-        <v>2.326743827343194</v>
+        <v>3.54368839685352</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2.082672402119652</v>
+        <v>1.299317544185638</v>
       </c>
       <c r="C125">
-        <v>1.132214724832527</v>
+        <v>0.8223453689501731</v>
       </c>
       <c r="D125">
-        <v>1.793674833555752</v>
+        <v>1.713141490797204</v>
       </c>
       <c r="E125">
-        <v>1.332083858674636</v>
+        <v>1.624030818819701</v>
       </c>
       <c r="F125">
-        <v>2.321931330711162</v>
+        <v>3.536364452493246</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2.077565869393432</v>
+        <v>1.290281720439653</v>
       </c>
       <c r="C126">
-        <v>1.123556447641505</v>
+        <v>0.8148154229827407</v>
       </c>
       <c r="D126">
-        <v>1.785114506743304</v>
+        <v>1.703628641280309</v>
       </c>
       <c r="E126">
-        <v>1.321164094185622</v>
+        <v>1.618255372008663</v>
       </c>
       <c r="F126">
-        <v>2.317019573867369</v>
+        <v>3.528911637772015</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2.072363803684137</v>
+        <v>1.281294461843198</v>
       </c>
       <c r="C127">
-        <v>1.114953901786402</v>
+        <v>0.8072965380041019</v>
       </c>
       <c r="D127">
-        <v>1.776502311922121</v>
+        <v>1.694057795451158</v>
       </c>
       <c r="E127">
-        <v>1.310245471299263</v>
+        <v>1.612495579427603</v>
       </c>
       <c r="F127">
-        <v>2.312010835845267</v>
+        <v>3.521333122769464</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2.067068586254922</v>
+        <v>1.272356382215703</v>
       </c>
       <c r="C128">
-        <v>1.106406862271837</v>
+        <v>0.7997903075623535</v>
       </c>
       <c r="D128">
-        <v>1.7678404923553</v>
+        <v>1.684432552264151</v>
       </c>
       <c r="E128">
-        <v>1.299331149068711</v>
+        <v>1.606751423938378</v>
       </c>
       <c r="F128">
-        <v>2.306907360647493</v>
+        <v>3.513632016250634</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2.061682566326007</v>
+        <v>1.263468060078564</v>
       </c>
       <c r="C129">
-        <v>1.097915103470009</v>
+        <v>0.7922982902056227</v>
       </c>
       <c r="D129">
-        <v>1.759131251663227</v>
+        <v>1.674756422295207</v>
       </c>
       <c r="E129">
-        <v>1.28842417609489</v>
+        <v>1.601022888268531</v>
       </c>
       <c r="F129">
-        <v>2.301711357667562</v>
+        <v>3.505811364881255</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>2.0562080610982</v>
+        <v>1.254630044888524</v>
       </c>
       <c r="C130">
-        <v>1.08947839913853</v>
+        <v>0.7848220101115171</v>
       </c>
       <c r="D130">
-        <v>1.750376754494907</v>
+        <v>1.66503282739287</v>
       </c>
       <c r="E130">
-        <v>1.277527493446205</v>
+        <v>1.595309955030039</v>
       </c>
       <c r="F130">
-        <v>2.296425002110202</v>
+        <v>3.497874153356856</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2.050647355792845</v>
+        <v>1.245842854912884</v>
       </c>
       <c r="C131">
-        <v>1.081096522438252</v>
+        <v>0.7773629559834758</v>
       </c>
       <c r="D131">
-        <v>1.741579127184549</v>
+        <v>1.655265106601928</v>
       </c>
       <c r="E131">
-        <v>1.266643937529586</v>
+        <v>1.589612606880319</v>
       </c>
       <c r="F131">
-        <v>2.291050435410205</v>
+        <v>3.489823309350561</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2.045002703707552</v>
+        <v>1.237106977753348</v>
       </c>
       <c r="C132">
-        <v>1.072769245951103</v>
+        <v>0.7699225794755095</v>
       </c>
       <c r="D132">
-        <v>1.732740458395691</v>
+        <v>1.645456508445157</v>
       </c>
       <c r="E132">
-        <v>1.255776242909358</v>
+        <v>1.583930826189377</v>
       </c>
       <c r="F132">
-        <v>2.28558976564959</v>
+        <v>3.481661701101154</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2.039276326288249</v>
+        <v>1.228422874419377</v>
       </c>
       <c r="C133">
-        <v>1.06449634169791</v>
+        <v>0.7625022972662385</v>
       </c>
       <c r="D133">
-        <v>1.723862799751953</v>
+        <v>1.635610200063654</v>
       </c>
       <c r="E133">
-        <v>1.24492704507132</v>
+        <v>1.578264595270924</v>
       </c>
       <c r="F133">
-        <v>2.280045067973038</v>
+        <v>3.473392139791703</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2.033470413215142</v>
+        <v>1.219790977056533</v>
       </c>
       <c r="C134">
-        <v>1.056277581156212</v>
+        <v>0.7551034931624678</v>
       </c>
       <c r="D134">
-        <v>1.714948166453161</v>
+        <v>1.625729261800831</v>
       </c>
       <c r="E134">
-        <v>1.23409888312979</v>
+        <v>1.572613896341462</v>
       </c>
       <c r="F134">
-        <v>2.274418385001305</v>
+        <v>3.465017384363378</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>2.027587122503948</v>
+        <v>1.211211691465416</v>
       </c>
       <c r="C135">
-        <v>1.048112735278067</v>
+        <v>0.7477275135943037</v>
       </c>
       <c r="D135">
-        <v>1.705998537877489</v>
+        <v>1.615816690530822</v>
       </c>
       <c r="E135">
-        <v>1.223294202476222</v>
+        <v>1.566978711513811</v>
       </c>
       <c r="F135">
-        <v>2.268711727242573</v>
+        <v>3.456540140131865</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2.021628580620319</v>
+        <v>1.202685398488267</v>
       </c>
       <c r="C136">
-        <v>1.040001574507832</v>
+        <v>0.7403756700942182</v>
       </c>
       <c r="D136">
-        <v>1.697015858169986</v>
+        <v>1.605875402586882</v>
       </c>
       <c r="E136">
-        <v>1.212515357368312</v>
+        <v>1.56135902301145</v>
       </c>
       <c r="F136">
-        <v>2.262927073501583</v>
+        <v>3.44796305669986</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>2.01559688260751</v>
+        <v>1.194212452516371</v>
       </c>
       <c r="C137">
-        <v>1.031943868799939</v>
+        <v>0.7330492396989444</v>
       </c>
       <c r="D137">
-        <v>1.688002036818974</v>
+        <v>1.595908229847888</v>
       </c>
       <c r="E137">
-        <v>1.201764613458039</v>
+        <v>1.555754812732596</v>
       </c>
       <c r="F137">
-        <v>2.257066371286415</v>
+        <v>3.439288729430173</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2.009494092227035</v>
+        <v>1.185793185369554</v>
       </c>
       <c r="C138">
-        <v>1.023939387636636</v>
+        <v>0.7257494669458321</v>
       </c>
       <c r="D138">
-        <v>1.678958949219943</v>
+        <v>1.585917927291004</v>
       </c>
       <c r="E138">
-        <v>1.191044150261923</v>
+        <v>1.550166062548214</v>
       </c>
       <c r="F138">
-        <v>2.251131537212915</v>
+        <v>3.430519712291234</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2.003322242110712</v>
+        <v>1.177427905011052</v>
       </c>
       <c r="C139">
-        <v>1.015987900045706</v>
+        <v>0.718477559027865</v>
       </c>
       <c r="D139">
-        <v>1.669888437226974</v>
+        <v>1.57590716811903</v>
       </c>
       <c r="E139">
-        <v>1.180356063569801</v>
+        <v>1.544592754255892</v>
       </c>
       <c r="F139">
-        <v>2.245124457406432</v>
+        <v>3.421658508330029</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.997083333924961</v>
+        <v>1.169116896263694</v>
       </c>
       <c r="C140">
-        <v>1.008089174618166</v>
+        <v>0.7112346895927879</v>
       </c>
       <c r="D140">
-        <v>1.660792309691961</v>
+        <v>1.565878548983829</v>
       </c>
       <c r="E140">
-        <v>1.169702367790254</v>
+        <v>1.539034869570377</v>
       </c>
       <c r="F140">
-        <v>2.23904698790096</v>
+        <v>3.412707568772856</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.990779338545455</v>
+        <v>1.160860423264616</v>
       </c>
       <c r="C141">
-        <v>1.000242979525917</v>
+        <v>0.7040219990729357</v>
       </c>
       <c r="D141">
-        <v>1.651672342992097</v>
+        <v>1.555834590812831</v>
       </c>
       <c r="E141">
-        <v>1.159084998239391</v>
+        <v>1.533492390068379</v>
       </c>
       <c r="F141">
-        <v>2.232900955035484</v>
+        <v>3.40366929066354</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.984412196242525</v>
+        <v>1.152658728003593</v>
       </c>
       <c r="C142">
-        <v>0.9924490825393769</v>
+        <v>0.6968405947163006</v>
       </c>
       <c r="D142">
-        <v>1.642530281545933</v>
+        <v>1.545777738097073</v>
       </c>
       <c r="E142">
-        <v>1.148505813371326</v>
+        <v>1.527965297306895</v>
       </c>
       <c r="F142">
-        <v>2.226688155847516</v>
+        <v>3.394546039802351</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.977983816876522</v>
+        <v>1.144512032500256</v>
       </c>
       <c r="C143">
-        <v>0.9847072510450617</v>
+        <v>0.6896915482653827</v>
       </c>
       <c r="D143">
-        <v>1.633367838318252</v>
+        <v>1.535710363655283</v>
       </c>
       <c r="E143">
-        <v>1.137966596949465</v>
+        <v>1.522453572748076</v>
       </c>
       <c r="F143">
-        <v>2.220410358463711</v>
+        <v>3.385340132710086</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.971496080102213</v>
+        <v>1.136420539307639</v>
       </c>
       <c r="C144">
-        <v>0.9770172520631335</v>
+        <v>0.6825758985476471</v>
       </c>
       <c r="D144">
-        <v>1.624186695313939</v>
+        <v>1.525634766694199</v>
       </c>
       <c r="E144">
-        <v>1.127469060158987</v>
+        <v>1.516957197772036</v>
       </c>
       <c r="F144">
-        <v>2.214069302487383</v>
+        <v>3.376053839529577</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.964950835582666</v>
+        <v>1.128384430821789</v>
       </c>
       <c r="C145">
-        <v>0.9693788522648986</v>
+        <v>0.6754946529975009</v>
       </c>
       <c r="D145">
-        <v>1.614988504061113</v>
+        <v>1.515553176732494</v>
       </c>
       <c r="E145">
-        <v>1.117014843666195</v>
+        <v>1.511476153682285</v>
       </c>
       <c r="F145">
-        <v>2.207666699382992</v>
+        <v>3.366689378760942</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.958349903210897</v>
+        <v>1.120403871965383</v>
       </c>
       <c r="C146">
-        <v>0.9617918179902617</v>
+        <v>0.668448784937797</v>
       </c>
       <c r="D146">
-        <v>1.605774886083787</v>
+        <v>1.505467754293724</v>
       </c>
       <c r="E146">
-        <v>1.106605519619486</v>
+        <v>1.506010421534207</v>
       </c>
       <c r="F146">
-        <v>2.201204232857395</v>
+        <v>3.357248940801682</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.951695073340005</v>
+        <v>1.112479009228025</v>
       </c>
       <c r="C147">
-        <v>0.9542559152651265</v>
+        <v>0.6614392346052096</v>
       </c>
       <c r="D147">
-        <v>1.596547433364343</v>
+        <v>1.495380591912348</v>
       </c>
       <c r="E147">
-        <v>1.096242593599421</v>
+        <v>1.500559982484405</v>
       </c>
       <c r="F147">
-        <v>2.194683559238023</v>
+        <v>3.347734670358149</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.94498810702051</v>
+        <v>1.10460997143571</v>
       </c>
       <c r="C148">
-        <v>0.9467709098187437</v>
+        <v>0.6544669101652361</v>
       </c>
       <c r="D148">
-        <v>1.587307708796156</v>
+        <v>1.4852937168994</v>
       </c>
       <c r="E148">
-        <v>1.085927506512849</v>
+        <v>1.495124817566798</v>
       </c>
       <c r="F148">
-        <v>2.188106307847623</v>
+        <v>3.338148670889077</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.938230736244657</v>
+        <v>1.096796871304413</v>
       </c>
       <c r="C149">
-        <v>0.939336567101002</v>
+        <v>0.6475326899211368</v>
       </c>
       <c r="D149">
-        <v>1.578057246626277</v>
+        <v>1.475209091521453</v>
       </c>
       <c r="E149">
-        <v>1.07566163643887</v>
+        <v>1.489704907720589</v>
       </c>
       <c r="F149">
-        <v>2.1814740813757</v>
+        <v>3.328492999828162</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.931424664197585</v>
+        <v>1.089039803750405</v>
       </c>
       <c r="C150">
-        <v>0.9319526522996583</v>
+        <v>0.6406374178177565</v>
       </c>
       <c r="D150">
-        <v>1.568797552888702</v>
+        <v>1.46512861555746</v>
       </c>
       <c r="E150">
-        <v>1.065446300421317</v>
+        <v>1.484300233803563</v>
       </c>
       <c r="F150">
-        <v>2.174788456246572</v>
+        <v>3.318769685400762</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.924571565514232</v>
+        <v>1.081338849161919</v>
       </c>
       <c r="C151">
-        <v>0.9246189303575068</v>
+        <v>0.6337819070750532</v>
       </c>
       <c r="D151">
-        <v>1.5595301058284</v>
+        <v>1.455054127375565</v>
       </c>
       <c r="E151">
-        <v>1.055282756214875</v>
+        <v>1.47891077651786</v>
       </c>
       <c r="F151">
-        <v>2.168050982983935</v>
+        <v>3.308980715074756</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.917673086542364</v>
+        <v>1.073694072981709</v>
       </c>
       <c r="C152">
-        <v>0.9173351659894793</v>
+        <v>0.62696694030509</v>
       </c>
       <c r="D152">
-        <v>1.550256356316312</v>
+        <v>1.444987405489303</v>
       </c>
       <c r="E152">
-        <v>1.045172203981741</v>
+        <v>1.473536516559424</v>
       </c>
       <c r="F152">
-        <v>2.161263186572112</v>
+        <v>3.299128039103536</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.910730845610652</v>
+        <v>1.066105526304812</v>
       </c>
       <c r="C153">
-        <v>0.91010112369968</v>
+        <v>0.6201932703578065</v>
       </c>
       <c r="D153">
-        <v>1.54097772825552</v>
+        <v>1.434930170207857</v>
       </c>
       <c r="E153">
-        <v>1.0351157879427</v>
+        <v>1.468177434524607</v>
       </c>
       <c r="F153">
-        <v>2.154426566813564</v>
+        <v>3.289213566482296</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.903746433301744</v>
+        <v>1.058573241905997</v>
       </c>
       <c r="C154">
-        <v>0.9029165677983458</v>
+        <v>0.6134616178564914</v>
       </c>
       <c r="D154">
-        <v>1.53169561897881</v>
+        <v>1.424884085093321</v>
       </c>
       <c r="E154">
-        <v>1.025114597983067</v>
+        <v>1.462833510919526</v>
       </c>
       <c r="F154">
-        <v>2.147542598682966</v>
+        <v>3.279239177566813</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.896721412729972</v>
+        <v>1.051097243033288</v>
       </c>
       <c r="C155">
-        <v>0.895781262418733</v>
+        <v>0.6067726738344271</v>
       </c>
       <c r="D155">
-        <v>1.522411399637854</v>
+        <v>1.414850758261387</v>
       </c>
       <c r="E155">
-        <v>1.01516967121401</v>
+        <v>1.457504726166469</v>
       </c>
       <c r="F155">
-        <v>2.140612732677637</v>
+        <v>3.269206716057199</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.889657319823221</v>
+        <v>1.043677539592737</v>
       </c>
       <c r="C156">
-        <v>0.8886949715339288</v>
+        <v>0.6001271007119653</v>
       </c>
       <c r="D156">
-        <v>1.513126415584222</v>
+        <v>1.404831744214598</v>
       </c>
       <c r="E156">
-        <v>1.005281993492527</v>
+        <v>1.452191060635875</v>
       </c>
       <c r="F156">
-        <v>2.1336383951644</v>
+        <v>3.259117991843762</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.882555663608475</v>
+        <v>1.036314128881008</v>
       </c>
       <c r="C157">
-        <v>0.8816574589735781</v>
+        <v>0.5935255311593793</v>
       </c>
       <c r="D157">
-        <v>1.503841986742434</v>
+        <v>1.394828545010215</v>
       </c>
       <c r="E157">
-        <v>0.995452500898273</v>
+        <v>1.446892494584349</v>
       </c>
       <c r="F157">
-        <v>2.126620988722845</v>
+        <v>3.248974775908695</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.875417926500256</v>
+        <v>1.029006989243703</v>
       </c>
       <c r="C158">
-        <v>0.8746684884405329</v>
+        <v>0.5869685681232962</v>
       </c>
       <c r="D158">
-        <v>1.494559407975249</v>
+        <v>1.384842611614629</v>
       </c>
       <c r="E158">
-        <v>0.9856820811722189</v>
+        <v>1.441609008193244</v>
       </c>
       <c r="F158">
-        <v>2.11956189248481</v>
+        <v>3.238778813857568</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.868245564593012</v>
+        <v>1.021756093352598</v>
       </c>
       <c r="C159">
-        <v>0.8677278235274117</v>
+        <v>0.5804567861573545</v>
       </c>
       <c r="D159">
-        <v>1.485279949441394</v>
+        <v>1.374875345827032</v>
       </c>
       <c r="E159">
-        <v>0.9759715751140097</v>
+        <v>1.436340581566439</v>
       </c>
       <c r="F159">
-        <v>2.11246246247027</v>
+        <v>3.228531817375381</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.8610400079565</v>
+        <v>1.014561401776121</v>
       </c>
       <c r="C160">
-        <v>0.8608352277330735</v>
+        <v>0.5739907333367169</v>
       </c>
       <c r="D160">
-        <v>1.476004856945918</v>
+        <v>1.364928100709512</v>
       </c>
       <c r="E160">
-        <v>0.9663217779438291</v>
+        <v>1.431087194727889</v>
       </c>
       <c r="F160">
-        <v>2.105324031919457</v>
+        <v>3.218235467391774</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.853802660933283</v>
+        <v>1.007422863630774</v>
       </c>
       <c r="C161">
-        <v>0.8539904644790008</v>
+        <v>0.5675709279923837</v>
       </c>
       <c r="D161">
-        <v>1.466735352283384</v>
+        <v>1.355002183103619</v>
       </c>
       <c r="E161">
-        <v>0.9567334406250561</v>
+        <v>1.425848827656468</v>
       </c>
       <c r="F161">
-        <v>2.09814791162143</v>
+        <v>3.207891407201538</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.846534902438072</v>
+        <v>1.000340411600507</v>
       </c>
       <c r="C162">
-        <v>0.8471932971255873</v>
+        <v>0.5611978615107359</v>
       </c>
       <c r="D162">
-        <v>1.457472633574071</v>
+        <v>1.345098854033409</v>
       </c>
       <c r="E162">
-        <v>0.947207271153643</v>
+        <v>1.420625460219747</v>
       </c>
       <c r="F162">
-        <v>2.090935390238529</v>
+        <v>3.197501258413922</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1.839238086258964</v>
+        <v>0.9933139729368277</v>
       </c>
       <c r="C163">
-        <v>0.8404434889883335</v>
+        <v>0.5548719984812315</v>
       </c>
       <c r="D163">
-        <v>1.448217875593378</v>
+        <v>1.33521933025499</v>
       </c>
       <c r="E163">
-        <v>0.9377439358108078</v>
+        <v>1.415417072214307</v>
       </c>
       <c r="F163">
-        <v>2.083687734627482</v>
+        <v>3.18706661082907</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.831913541360467</v>
+        <v>0.9863434642138097</v>
       </c>
       <c r="C164">
-        <v>0.8337408033539406</v>
+        <v>0.5485937778513132</v>
       </c>
       <c r="D164">
-        <v>1.438972230094612</v>
+        <v>1.325364786015747</v>
       </c>
       <c r="E164">
-        <v>0.9283440603836536</v>
+        <v>1.410223643364794</v>
       </c>
       <c r="F164">
-        <v>2.076406190157178</v>
+        <v>3.176589025800452</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.824562572187961</v>
+        <v>0.9794287917752857</v>
       </c>
       <c r="C165">
-        <v>0.8270850034963064</v>
+        <v>0.5423636109778958</v>
       </c>
       <c r="D165">
-        <v>1.429736826125335</v>
+        <v>1.315536353172135</v>
       </c>
       <c r="E165">
-        <v>0.9190082313524716</v>
+        <v>1.405045153321125</v>
       </c>
       <c r="F165">
-        <v>2.069091981022031</v>
+        <v>3.166070030880432</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.817186458973177</v>
+        <v>0.9725698491692636</v>
       </c>
       <c r="C166">
-        <v>0.8204758526924169</v>
+        <v>0.5361818838398315</v>
       </c>
       <c r="D166">
-        <v>1.420512770337451</v>
+        <v>1.305735123861736</v>
       </c>
       <c r="E166">
-        <v>0.9097369970465738</v>
+        <v>1.399881581647302</v>
       </c>
       <c r="F166">
-        <v>2.061746310553663</v>
+        <v>3.155511131697363</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.809786458040385</v>
+        <v>0.9657665235734931</v>
       </c>
       <c r="C167">
-        <v>0.8139131142381316</v>
+        <v>0.5300489576230085</v>
       </c>
       <c r="D167">
-        <v>1.411301147291202</v>
+        <v>1.29596214981222</v>
       </c>
       <c r="E167">
-        <v>0.9005308687699123</v>
+        <v>1.39473290784485</v>
       </c>
       <c r="F167">
-        <v>2.054370361523494</v>
+        <v>3.144913805724568</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.80236380211312</v>
+        <v>0.9590186929770873</v>
       </c>
       <c r="C168">
-        <v>0.8073965514638661</v>
+        <v>0.5239651686668274</v>
       </c>
       <c r="D168">
-        <v>1.402103019753238</v>
+        <v>1.28621844508351</v>
       </c>
       <c r="E168">
-        <v>0.8913903218961543</v>
+        <v>1.389599111340341</v>
       </c>
       <c r="F168">
-        <v>2.046965296446615</v>
+        <v>3.13427950376253</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.794919700621278</v>
+        <v>0.9523262265062553</v>
       </c>
       <c r="C169">
-        <v>0.8009259277501577</v>
+        <v>0.5179308281515809</v>
       </c>
       <c r="D169">
-        <v>1.39291942898893</v>
+        <v>1.276504987596425</v>
       </c>
       <c r="E169">
-        <v>0.8823157969360783</v>
+        <v>1.384480171486102</v>
       </c>
       <c r="F169">
-        <v>2.039532257880837</v>
+        <v>3.123609646707725</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.787455340008386</v>
+        <v>0.9456889832700347</v>
       </c>
       <c r="C170">
-        <v>0.7945010065431266</v>
+        <v>0.5119462234156402</v>
       </c>
       <c r="D170">
-        <v>1.383751395049093</v>
+        <v>1.266822719637153</v>
       </c>
       <c r="E170">
-        <v>0.8733077005756252</v>
+        <v>1.37937606756215</v>
       </c>
       <c r="F170">
-        <v>2.032072368721483</v>
+        <v>3.112905633202428</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.779971884038753</v>
+        <v>0.9391068158510564</v>
       </c>
       <c r="C171">
-        <v>0.7881215513698169</v>
+        <v>0.5060116190267787</v>
       </c>
       <c r="D171">
-        <v>1.374599917051265</v>
+        <v>1.257172543802618</v>
       </c>
       <c r="E171">
-        <v>0.8643664066883544</v>
+        <v>1.374286778747907</v>
       </c>
       <c r="F171">
-        <v>2.024586732494029</v>
+        <v>3.102168836871067</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.772470474104294</v>
+        <v>0.9325795690185844</v>
       </c>
       <c r="C172">
-        <v>0.781787325853426</v>
+        <v>0.5001272556361691</v>
       </c>
       <c r="D172">
-        <v>1.365465973455717</v>
+        <v>1.247555335119885</v>
       </c>
       <c r="E172">
-        <v>0.8554922573199248</v>
+        <v>1.369212284177512</v>
       </c>
       <c r="F172">
-        <v>2.017076433640313</v>
+        <v>3.09140060646603</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.764952229530877</v>
+        <v>0.9261070800156891</v>
       </c>
       <c r="C173">
-        <v>0.7754980937284142</v>
+        <v>0.4942933512150593</v>
       </c>
       <c r="D173">
-        <v>1.356350522336322</v>
+        <v>1.237971934772207</v>
       </c>
       <c r="E173">
-        <v>0.8466855636486975</v>
+        <v>1.364152562909876</v>
       </c>
       <c r="F173">
-        <v>2.009542537802798</v>
+        <v>3.080602263874586</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.75741824788399</v>
+        <v>0.9196891767232211</v>
       </c>
       <c r="C174">
-        <v>0.7692536188554925</v>
+        <v>0.488510101576857</v>
       </c>
       <c r="D174">
-        <v>1.347254501646457</v>
+        <v>1.228423150670477</v>
       </c>
       <c r="E174">
-        <v>0.8379466069199241</v>
+        <v>1.359107593928201</v>
       </c>
       <c r="F174">
-        <v>2.001986092105109</v>
+        <v>3.069775109196526</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.749869605273575</v>
+        <v>0.9133256819665369</v>
       </c>
       <c r="C175">
-        <v>0.7630536652364941</v>
+        <v>0.4827776813014369</v>
       </c>
       <c r="D175">
-        <v>1.338178829480071</v>
+        <v>1.21890975550617</v>
       </c>
       <c r="E175">
-        <v>0.8292756393572431</v>
+        <v>1.35407735614392</v>
       </c>
       <c r="F175">
-        <v>1.994408125428544</v>
+        <v>3.058920420054357</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.742307356657846</v>
+        <v>0.9070164117955706</v>
       </c>
       <c r="C176">
-        <v>0.756897997029114</v>
+        <v>0.477096242849414</v>
       </c>
       <c r="D176">
-        <v>1.329124404328062</v>
+        <v>1.209432499730483</v>
       </c>
       <c r="E176">
-        <v>0.8206728850497484</v>
+        <v>1.349061828386082</v>
       </c>
       <c r="F176">
-        <v>1.986809648686171</v>
+        <v>3.048039450928793</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.73473253614593</v>
+        <v>0.900761175683861</v>
       </c>
       <c r="C177">
-        <v>0.7507863785615319</v>
+        <v>0.4714659179793975</v>
       </c>
       <c r="D177">
-        <v>1.320092105330118</v>
+        <v>1.199992102872955</v>
       </c>
       <c r="E177">
-        <v>0.8121385408169495</v>
+        <v>1.344060989422381</v>
       </c>
       <c r="F177">
-        <v>1.97919165509146</v>
+        <v>3.037133431750179</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.727146157299189</v>
+        <v>0.8945597746891887</v>
       </c>
       <c r="C178">
-        <v>0.7447185743469007</v>
+        <v>0.4658868181399949</v>
       </c>
       <c r="D178">
-        <v>1.311082792522137</v>
+        <v>1.190589252055867</v>
       </c>
       <c r="E178">
-        <v>0.8036727770515113</v>
+        <v>1.339074817948485</v>
       </c>
       <c r="F178">
-        <v>1.971555120424424</v>
+        <v>3.026203571522285</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.719549213431075</v>
+        <v>0.8884120057428225</v>
       </c>
       <c r="C179">
-        <v>0.7386943490977087</v>
+        <v>0.460359034900464</v>
       </c>
       <c r="D179">
-        <v>1.302097307079365</v>
+        <v>1.181224608060225</v>
       </c>
       <c r="E179">
-        <v>0.7952757385403376</v>
+        <v>1.334103292587594</v>
       </c>
       <c r="F179">
-        <v>1.963901003294244</v>
+        <v>3.015251059012792</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.711942677905395</v>
+        <v>0.8823176599265422</v>
       </c>
       <c r="C180">
-        <v>0.7327134677400138</v>
+        <v>0.4548826399412426</v>
       </c>
       <c r="D180">
-        <v>1.293136471555455</v>
+        <v>1.171898808692138</v>
       </c>
       <c r="E180">
-        <v>0.7869475452653494</v>
+        <v>1.329146391892233</v>
       </c>
       <c r="F180">
-        <v>1.956230245397974</v>
+        <v>3.004277061379549</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.704327504432846</v>
+        <v>0.8762765225949098</v>
       </c>
       <c r="C181">
-        <v>0.7267756954275298</v>
+        <v>0.4494576859395502</v>
       </c>
       <c r="D181">
-        <v>1.284201090117426</v>
+        <v>1.162612464918487</v>
       </c>
       <c r="E181">
-        <v>0.7786882931832592</v>
+        <v>1.324204094350894</v>
       </c>
       <c r="F181">
-        <v>1.948543771776746</v>
+        <v>2.993282723274812</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.69670462736571</v>
+        <v>0.8702883718945591</v>
       </c>
       <c r="C182">
-        <v>0.7208807975556033</v>
+        <v>0.4440842070747908</v>
       </c>
       <c r="D182">
-        <v>1.275291948776777</v>
+        <v>1.153366157172767</v>
       </c>
       <c r="E182">
-        <v>0.7704980549865974</v>
+        <v>1.319276378376753</v>
       </c>
       <c r="F182">
-        <v>1.940842491067152</v>
+        <v>2.98226916925986</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.689074961990596</v>
+        <v>0.8643529823538949</v>
       </c>
       <c r="C183">
-        <v>0.715028539775067</v>
+        <v>0.4387622192173737</v>
       </c>
       <c r="D183">
-        <v>1.266409815616849</v>
+        <v>1.144160447495026</v>
       </c>
       <c r="E183">
-        <v>0.7623768808445417</v>
+        <v>1.314363222313997</v>
       </c>
       <c r="F183">
-        <v>1.933127295749668</v>
+        <v>2.971237505652092</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.681439404819105</v>
+        <v>0.8584701234969745</v>
       </c>
       <c r="C184">
-        <v>0.7092186880059157</v>
+        <v>0.4334917204458222</v>
       </c>
       <c r="D184">
-        <v>1.25755544101653</v>
+        <v>1.134995873234198</v>
       </c>
       <c r="E184">
-        <v>0.7543247991262699</v>
+        <v>1.309464604438917</v>
       </c>
       <c r="F184">
-        <v>1.925399062394058</v>
+        <v>2.960188818538469</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.673798833876348</v>
+        <v>0.8526395599250693</v>
       </c>
       <c r="C185">
-        <v>0.7034510084508443</v>
+        <v>0.4282726915555427</v>
       </c>
       <c r="D185">
-        <v>1.248729557870445</v>
+        <v>1.125872948283884</v>
       </c>
       <c r="E185">
-        <v>0.7463418171050198</v>
+        <v>1.304580502959387</v>
       </c>
       <c r="F185">
-        <v>1.917658651900956</v>
+        <v>2.949124173437244</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.666154108987265</v>
+        <v>0.8468610502620798</v>
       </c>
       <c r="C186">
-        <v>0.6977252676086667</v>
+        <v>0.4231050964122399</v>
       </c>
       <c r="D186">
-        <v>1.239932881805733</v>
+        <v>1.116792161389968</v>
       </c>
       <c r="E186">
-        <v>0.7384279216457051</v>
+        <v>1.299710896021179</v>
       </c>
       <c r="F186">
-        <v>1.909906909740748</v>
+        <v>2.938044616600633</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.658506072060475</v>
+        <v>0.841134349884379</v>
       </c>
       <c r="C187">
-        <v>0.6920412322876038</v>
+        <v>0.417988882552901</v>
       </c>
       <c r="D187">
-        <v>1.23116611139553</v>
+        <v>1.107753984107584</v>
       </c>
       <c r="E187">
-        <v>0.7305830798743154</v>
+        <v>1.294855761697548</v>
       </c>
       <c r="F187">
-        <v>1.902144666188416</v>
+        <v>2.926951177681314</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.650855547369807</v>
+        <v>0.8354592099445226</v>
       </c>
       <c r="C188">
-        <v>0.6863986696184207</v>
+        <v>0.4129239815224525</v>
       </c>
       <c r="D188">
-        <v>1.222429928369272</v>
+        <v>1.09875886604215</v>
       </c>
       <c r="E188">
-        <v>0.7228072398314332</v>
+        <v>1.290015077994928</v>
       </c>
       <c r="F188">
-        <v>1.894372736554933</v>
+        <v>2.91584486742484</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.643203341833308</v>
+        <v>0.8298353774420251</v>
       </c>
       <c r="C189">
-        <v>0.6807973470674146</v>
+        <v>0.4079103093517719</v>
       </c>
       <c r="D189">
-        <v>1.21372499781991</v>
+        <v>1.089807234834866</v>
       </c>
       <c r="E189">
-        <v>0.7151003311090046</v>
+        <v>1.285188822854278</v>
       </c>
       <c r="F189">
-        <v>1.886591921416125</v>
+        <v>2.904726677769306</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.635550245289692</v>
+        <v>0.8242625943536882</v>
       </c>
       <c r="C190">
-        <v>0.6752370324492573</v>
+        <v>0.4029477670071996</v>
       </c>
       <c r="D190">
-        <v>1.20505196840816</v>
+        <v>1.080899498015886</v>
       </c>
       <c r="E190">
-        <v>0.7074622654714409</v>
+        <v>1.280376974150591</v>
       </c>
       <c r="F190">
-        <v>1.878803006837847</v>
+        <v>2.893597582290296</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.627897030772151</v>
+        <v>0.8187405999057413</v>
       </c>
       <c r="C191">
-        <v>0.6697174939396962</v>
+        <v>0.398036240837318</v>
       </c>
       <c r="D191">
-        <v>1.196411472563885</v>
+        <v>1.072036046698289</v>
       </c>
       <c r="E191">
-        <v>0.6998929374614045</v>
+        <v>1.275579509691533</v>
       </c>
       <c r="F191">
-        <v>1.871006764598298</v>
+        <v>2.882458539308785</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.620244454779487</v>
+        <v>0.8132691298091291</v>
       </c>
       <c r="C192">
-        <v>0.6642385000881109</v>
+        <v>0.3931756014593137</v>
       </c>
       <c r="D192">
-        <v>1.187804126684691</v>
+        <v>1.063217252837179</v>
       </c>
       <c r="E192">
-        <v>0.6923922249902231</v>
+        <v>1.27079640722106</v>
       </c>
       <c r="F192">
-        <v>1.863203952407114</v>
+        <v>2.871310489514259</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.612593257544496</v>
+        <v>0.8078479163134277</v>
       </c>
       <c r="C193">
-        <v>0.6587998198299221</v>
+        <v>0.3883657077992665</v>
       </c>
       <c r="D193">
-        <v>1.179230531331869</v>
+        <v>1.054443466836213</v>
       </c>
       <c r="E193">
-        <v>0.6849599899141684</v>
+        <v>1.266027644418355</v>
       </c>
       <c r="F193">
-        <v>1.855395314120445</v>
+        <v>2.860154356326771</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.604944163299566</v>
+        <v>0.8024766873613045</v>
       </c>
       <c r="C194">
-        <v>0.6534012224988509</v>
+        <v>0.3836064046992353</v>
       </c>
       <c r="D194">
-        <v>1.170691271423737</v>
+        <v>1.04571502472165</v>
       </c>
       <c r="E194">
-        <v>0.6775960785957997</v>
+        <v>1.261273198897876</v>
       </c>
       <c r="F194">
-        <v>1.847581579954068</v>
+        <v>2.848991045735139</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.597297880539437</v>
+        <v>0.7971551687182278</v>
       </c>
       <c r="C195">
-        <v>0.6480424778390291</v>
+        <v>0.3788975241293742</v>
       </c>
       <c r="D195">
-        <v>1.16218691642651</v>
+        <v>1.03703224573561</v>
       </c>
       <c r="E195">
-        <v>0.6703003224521292</v>
+        <v>1.256533048210072</v>
       </c>
       <c r="F195">
-        <v>1.839763466692944</v>
+        <v>2.837821449673277</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.589655102281087</v>
+        <v>0.791883083269139</v>
       </c>
       <c r="C196">
-        <v>0.6427233560169581</v>
+        <v>0.3742388856347351</v>
       </c>
       <c r="D196">
-        <v>1.153718020542759</v>
+        <v>1.028395432119684</v>
       </c>
       <c r="E196">
-        <v>0.6630725384883874</v>
+        <v>1.251807169837635</v>
       </c>
       <c r="F196">
-        <v>1.831941677897768</v>
+        <v>2.826646443622833</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.582016506320706</v>
+        <v>0.7866601510405404</v>
       </c>
       <c r="C197">
-        <v>0.6374436276333217</v>
+        <v>0.3696302967820709</v>
       </c>
       <c r="D197">
-        <v>1.145285122897569</v>
+        <v>1.019804866687553</v>
       </c>
       <c r="E197">
-        <v>0.6559125298193869</v>
+        <v>1.247095541203251</v>
       </c>
       <c r="F197">
-        <v>1.824116904109132</v>
+        <v>2.815466887145242</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.574382755487723</v>
+        <v>0.7814860883904434</v>
       </c>
       <c r="C198">
-        <v>0.6322030637346449</v>
+        <v>0.3650715493871871</v>
       </c>
       <c r="D198">
-        <v>1.136888747722463</v>
+        <v>1.011260820985602</v>
       </c>
       <c r="E198">
-        <v>0.6488200861762713</v>
+        <v>1.242398139666768</v>
       </c>
       <c r="F198">
-        <v>1.816289823047105</v>
+        <v>2.804283623258252</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.566754497895868</v>
+        <v>0.7763606100139687</v>
       </c>
       <c r="C199">
-        <v>0.6270014358247995</v>
+        <v>0.3605624292283062</v>
       </c>
       <c r="D199">
-        <v>1.12852940453718</v>
+        <v>1.002763550245789</v>
       </c>
       <c r="E199">
-        <v>0.6417949844030985</v>
+        <v>1.237714942524569</v>
       </c>
       <c r="F199">
-        <v>1.808461099809425</v>
+        <v>2.793097482047102</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.559132367191233</v>
+        <v>0.7712834282921166</v>
       </c>
       <c r="C200">
-        <v>0.6218385158763571</v>
+        <v>0.3561027098345345</v>
       </c>
       <c r="D200">
-        <v>1.120207588329392</v>
+        <v>0.9943132939850157</v>
       </c>
       <c r="E200">
-        <v>0.6348369889414839</v>
+        <v>1.233045927010686</v>
       </c>
       <c r="F200">
-        <v>1.800631387066264</v>
+        <v>2.781909278210387</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.551516982797303</v>
+        <v>0.7662542532833816</v>
       </c>
       <c r="C201">
-        <v>0.616714076341794</v>
+        <v>0.3516921541230442</v>
       </c>
       <c r="D201">
-        <v>1.111923779732432</v>
+        <v>0.9859102763062152</v>
       </c>
       <c r="E201">
-        <v>0.6279458523003277</v>
+        <v>1.228391070296258</v>
       </c>
       <c r="F201">
-        <v>1.792801325251854</v>
+        <v>2.770719811735291</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.543908950156974</v>
+        <v>0.7612727920165573</v>
       </c>
       <c r="C202">
-        <v>0.6116278901645366</v>
+        <v>0.3473305150819347</v>
       </c>
       <c r="D202">
-        <v>1.103678445201101</v>
+        <v>0.9775547098949859</v>
       </c>
       <c r="E202">
-        <v>0.6211213155135926</v>
+        <v>1.223750349491522</v>
       </c>
       <c r="F202">
-        <v>1.784971542754561</v>
+        <v>2.759529866918626</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.536308860971577</v>
+        <v>0.7563387502682766</v>
       </c>
       <c r="C203">
-        <v>0.6065797307898535</v>
+        <v>0.3430175362051582</v>
       </c>
       <c r="D203">
-        <v>1.095472037185645</v>
+        <v>0.9692467932270146</v>
       </c>
       <c r="E203">
-        <v>0.6143631085883902</v>
+        <v>1.219123741645525</v>
       </c>
       <c r="F203">
-        <v>1.777142656101827</v>
+        <v>2.748340216129453</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.528717293436681</v>
+        <v>0.7514518320088378</v>
       </c>
       <c r="C204">
-        <v>0.6015693721755958</v>
+        <v>0.3387529450545915</v>
       </c>
       <c r="D204">
-        <v>1.087304994303953</v>
+        <v>0.960986709888966</v>
       </c>
       <c r="E204">
-        <v>0.6076709509426307</v>
+        <v>1.214511223746231</v>
       </c>
       <c r="F204">
-        <v>1.769315270144287</v>
+        <v>2.737151617329904</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.521134812474965</v>
+        <v>0.7466117393778848</v>
       </c>
       <c r="C205">
-        <v>0.5965965888027797</v>
+        <v>0.3345364678425961</v>
       </c>
       <c r="D205">
-        <v>1.079177741512056</v>
+        <v>0.9527746317661933</v>
       </c>
       <c r="E205">
-        <v>0.6010445518310599</v>
+        <v>1.209912772721073</v>
       </c>
       <c r="F205">
-        <v>1.761489978236537</v>
+        <v>2.725964814861522</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.513561969965974</v>
+        <v>0.741818172091644</v>
       </c>
       <c r="C206">
-        <v>0.5916611556860155</v>
+        <v>0.3303678212358357</v>
       </c>
       <c r="D206">
-        <v>1.071090690272983</v>
+        <v>0.9446107190070558</v>
       </c>
       <c r="E206">
-        <v>0.5944836107598981</v>
+        <v>1.205328365439187</v>
       </c>
       <c r="F206">
-        <v>1.753667362414984</v>
+        <v>2.714780538229947</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.505999304972807</v>
+        <v>0.7370708289671707</v>
       </c>
       <c r="C207">
-        <v>0.5867628483837803</v>
+        <v>0.3262467129359154</v>
       </c>
       <c r="D207">
-        <v>1.063044238724051</v>
+        <v>0.9364951194260711</v>
       </c>
       <c r="E207">
-        <v>0.5879878178910373</v>
+        <v>1.2007579787086</v>
       </c>
       <c r="F207">
-        <v>1.745847993574106</v>
+        <v>2.703599505866924</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.498447343965714</v>
+        <v>0.7323694074740066</v>
       </c>
       <c r="C208">
-        <v>0.5819014430085349</v>
+        <v>0.3221728429867565</v>
       </c>
       <c r="D208">
-        <v>1.055038771842632</v>
+        <v>0.9284279665833797</v>
       </c>
       <c r="E208">
-        <v>0.5815568544363686</v>
+        <v>1.196201589277822</v>
       </c>
       <c r="F208">
-        <v>1.7380324316382</v>
+        <v>2.692422422718733</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.49090660104263</v>
+        <v>0.7277136037037236</v>
       </c>
       <c r="C209">
-        <v>0.5770767162366848</v>
+        <v>0.3181459041869818</v>
       </c>
       <c r="D209">
-        <v>1.047074661610474</v>
+        <v>0.9204093855861505</v>
       </c>
       <c r="E209">
-        <v>0.5751903930422799</v>
+        <v>1.191659173836876</v>
       </c>
       <c r="F209">
-        <v>1.730221225731984</v>
+        <v>2.681249981093469</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.483377578146631</v>
+        <v>0.7231031118524723</v>
       </c>
       <c r="C210">
-        <v>0.5722884453183846</v>
+        <v>0.3141655744319921</v>
       </c>
       <c r="D210">
-        <v>1.039152267176618</v>
+        <v>0.9124394896425465</v>
       </c>
       <c r="E210">
-        <v>0.5688880981642854</v>
+        <v>1.1871307090173</v>
       </c>
       <c r="F210">
-        <v>1.722414914348287</v>
+        <v>2.67008285931196</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.47586076528033</v>
+        <v>0.7185376255570013</v>
       </c>
       <c r="C211">
-        <v>0.5675364080871868</v>
+        <v>0.310231532380895</v>
       </c>
       <c r="D211">
-        <v>1.031271935018863</v>
+        <v>0.9045183806844372</v>
       </c>
       <c r="E211">
-        <v>0.5626496264319814</v>
+        <v>1.182616171394204</v>
       </c>
       <c r="F211">
-        <v>1.71461402551298</v>
+        <v>2.65892172535559</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.468356640717213</v>
+        <v>0.7140168375226078</v>
       </c>
       <c r="C212">
-        <v>0.5628203829695333</v>
+        <v>0.3063434508914736</v>
       </c>
       <c r="D212">
-        <v>1.0234339991037</v>
+        <v>0.8966461489047165</v>
       </c>
       <c r="E212">
-        <v>0.556474627004651</v>
+        <v>1.178115537483859</v>
       </c>
       <c r="F212">
-        <v>1.706819076948275</v>
+        <v>2.647767234585947</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.460865671209937</v>
+        <v>0.7095404394854256</v>
       </c>
       <c r="C213">
-        <v>0.5581401489940917</v>
+        <v>0.3025009950692432</v>
       </c>
       <c r="D213">
-        <v>1.015638781046175</v>
+        <v>0.88882287629907</v>
       </c>
       <c r="E213">
-        <v>0.5503627419177902</v>
+        <v>1.173628783745065</v>
       </c>
       <c r="F213">
-        <v>1.699030576232125</v>
+        <v>2.636620030610752</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.453388312195584</v>
+        <v>0.7051081217355654</v>
       </c>
       <c r="C214">
-        <v>0.5534954858009337</v>
+        <v>0.2987038243904844</v>
       </c>
       <c r="D214">
-        <v>1.007886590268359</v>
+        <v>0.8810486343450985</v>
       </c>
       <c r="E214">
-        <v>0.5443136064207282</v>
+        <v>1.169155886580207</v>
       </c>
       <c r="F214">
-        <v>1.691249020956166</v>
+        <v>2.625480743868951</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.44592500799791</v>
+        <v>0.70071957433204</v>
       </c>
       <c r="C215">
-        <v>0.5488861736505581</v>
+        <v>0.2949515930847533</v>
       </c>
       <c r="D215">
-        <v>1.000177724153497</v>
+        <v>0.8733234837633942</v>
       </c>
       <c r="E215">
-        <v>0.5383268493054897</v>
+        <v>1.164696822335292</v>
       </c>
       <c r="F215">
-        <v>1.683474898881184</v>
+        <v>2.614349995113231</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.43847619202658</v>
+        <v>0.6963744867780721</v>
       </c>
       <c r="C216">
-        <v>0.5443119934327585</v>
+        <v>0.2912439425153721</v>
       </c>
       <c r="D216">
-        <v>0.9925124682057506</v>
+        <v>0.8656474761010374</v>
       </c>
       <c r="E216">
-        <v>0.5324020932270798</v>
+        <v>1.160251567300707</v>
       </c>
       <c r="F216">
-        <v>1.675708688089953</v>
+        <v>2.603228393286902</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.431042286973419</v>
+        <v>0.6920725479717873</v>
       </c>
       <c r="C217">
-        <v>0.539772726675332</v>
+        <v>0.2875805150412659</v>
       </c>
       <c r="D217">
-        <v>0.9848910962001445</v>
+        <v>0.8580206545872029</v>
       </c>
       <c r="E217">
-        <v>0.5265389550153917</v>
+        <v>1.155820097711034</v>
       </c>
       <c r="F217">
-        <v>1.667950857138416</v>
+        <v>2.59211653631296</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.42362370500569</v>
+        <v>0.6878134457640753</v>
       </c>
       <c r="C218">
-        <v>0.5352681555526352</v>
+        <v>0.2839609513054531</v>
       </c>
       <c r="D218">
-        <v>0.9773138703377575</v>
+        <v>0.850443053269719</v>
       </c>
       <c r="E218">
-        <v>0.5207370459789341</v>
+        <v>1.151402389745632</v>
       </c>
       <c r="F218">
-        <v>1.66020186520358</v>
+        <v>2.58101500997636</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.416220847956437</v>
+        <v>0.6835968680729418</v>
       </c>
       <c r="C219">
-        <v>0.5307980628939803</v>
+        <v>0.2803848852063326</v>
       </c>
       <c r="D219">
-        <v>0.9697810413997342</v>
+        <v>0.8429146958699627</v>
       </c>
       <c r="E219">
-        <v>0.5149959722005465</v>
+        <v>1.146998419529205</v>
       </c>
       <c r="F219">
-        <v>1.652462162229622</v>
+        <v>2.569924390583586</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.408834107511957</v>
+        <v>0.6794225025969893</v>
       </c>
       <c r="C220">
-        <v>0.5263622321918855</v>
+        <v>0.2768519468064978</v>
       </c>
       <c r="D220">
-        <v>0.9622928488967784</v>
+        <v>0.8354355993780227</v>
       </c>
       <c r="E220">
-        <v>0.5093153348252677</v>
+        <v>1.14260816313212</v>
       </c>
       <c r="F220">
-        <v>1.644732189071952</v>
+        <v>2.558845243643302</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.401463865396207</v>
+        <v>0.6752900367546726</v>
       </c>
       <c r="C221">
-        <v>0.5219604476101553</v>
+        <v>0.2733617626814587</v>
       </c>
       <c r="D221">
-        <v>0.9548495212205425</v>
+        <v>0.8280057721967239</v>
       </c>
       <c r="E221">
-        <v>0.5036947303405139</v>
+        <v>1.138231596570923</v>
       </c>
       <c r="F221">
-        <v>1.637012377638786</v>
+        <v>2.547778124255496</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.39411049355248</v>
+        <v>0.6711991572843325</v>
       </c>
       <c r="C222">
-        <v>0.5175924939918171</v>
+        <v>0.2699139488543185</v>
       </c>
       <c r="D222">
-        <v>0.9474512757951767</v>
+        <v>0.8206252144972128</v>
       </c>
       <c r="E222">
-        <v>0.4981337508486874</v>
+        <v>1.133868695808564</v>
       </c>
       <c r="F222">
-        <v>1.629303151031028</v>
+        <v>2.536723576302976</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1.386774354322167</v>
+        <v>0.6671495512514216</v>
       </c>
       <c r="C223">
-        <v>0.5132581568668998</v>
+        <v>0.2665081217248617</v>
       </c>
       <c r="D223">
-        <v>0.9400983192235721</v>
+        <v>0.8132939176247569</v>
       </c>
       <c r="E223">
-        <v>0.4926319843326489</v>
+        <v>1.129519436754845</v>
       </c>
       <c r="F223">
-        <v>1.621604923679445</v>
+        <v>2.525682134445425</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.379455800620702</v>
+        <v>0.6631409058016076</v>
       </c>
       <c r="C224">
-        <v>0.5089572224600584</v>
+        <v>0.2631438999823114</v>
       </c>
       <c r="D224">
-        <v>0.9327908474365895</v>
+        <v>0.8060118667677008</v>
       </c>
       <c r="E224">
-        <v>0.4871890149137438</v>
+        <v>1.125183795266891</v>
       </c>
       <c r="F224">
-        <v>1.613918101479766</v>
+        <v>2.514654323433203</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.372155176110694</v>
+        <v>0.6591729080926938</v>
       </c>
       <c r="C225">
-        <v>0.504689477698045</v>
+        <v>0.259820896388067</v>
       </c>
       <c r="D225">
-        <v>0.9255290458415422</v>
+        <v>0.7987790393268414</v>
       </c>
       <c r="E225">
-        <v>0.481804423102828</v>
+        <v>1.120861747149517</v>
       </c>
       <c r="F225">
-        <v>1.606243081926119</v>
+        <v>2.503640658185599</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.364872815372286</v>
+        <v>0.6552452449378835</v>
       </c>
       <c r="C226">
-        <v>0.5004547102170265</v>
+        <v>0.2565387214257947</v>
       </c>
       <c r="D226">
-        <v>0.9183130894663503</v>
+        <v>0.7915954049574215</v>
       </c>
       <c r="E226">
-        <v>0.4764777860444108</v>
+        <v>1.116553268156141</v>
       </c>
       <c r="F226">
-        <v>1.598580254242137</v>
+        <v>2.492641643237254</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.35760904407076</v>
+        <v>0.6513576037058358</v>
       </c>
       <c r="C227">
-        <v>0.49625270836975</v>
+        <v>0.2532969836139736</v>
       </c>
       <c r="D227">
-        <v>0.9111431431070084</v>
+        <v>0.7844609261605524</v>
       </c>
       <c r="E227">
-        <v>0.4712086777540757</v>
+        <v>1.11225833398839</v>
       </c>
       <c r="F227">
-        <v>1.590929999510322</v>
+        <v>2.481657774183474</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.350364179121424</v>
+        <v>0.6475096721122301</v>
       </c>
       <c r="C228">
-        <v>0.4920832612325553</v>
+        <v>0.250095283181372</v>
       </c>
       <c r="D228">
-        <v>0.9040193614727569</v>
+        <v>0.7773755593987745</v>
       </c>
       <c r="E228">
-        <v>0.4659966693492839</v>
+        <v>1.107976920296697</v>
       </c>
       <c r="F228">
-        <v>1.583292690799271</v>
+        <v>2.470689537494079</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.343138528851803</v>
+        <v>0.6437011381477232</v>
       </c>
       <c r="C229">
-        <v>0.4879461586122361</v>
+        <v>0.2469332196496471</v>
       </c>
       <c r="D229">
-        <v>0.8969418893291269</v>
+        <v>0.7703392542739296</v>
       </c>
       <c r="E229">
-        <v>0.4608413292736837</v>
+        <v>1.103709002680989</v>
       </c>
       <c r="F229">
-        <v>1.57566869328854</v>
+        <v>2.459737410353996</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.33593239316117</v>
+        <v>0.6399316897567799</v>
       </c>
       <c r="C230">
-        <v>0.4838411910527505</v>
+        <v>0.2438103986535118</v>
       </c>
       <c r="D230">
-        <v>0.8899108616430196</v>
+        <v>0.7633519529782187</v>
       </c>
       <c r="E230">
-        <v>0.455742223515073</v>
+        <v>1.09945455669096</v>
       </c>
       <c r="F230">
-        <v>1.568058364392219</v>
+        <v>2.448801860316044</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.328746063677437</v>
+        <v>0.6362010156447426</v>
       </c>
       <c r="C231">
-        <v>0.4797681498417806</v>
+        <v>0.2407264204920533</v>
       </c>
       <c r="D231">
-        <v>0.8829264037252262</v>
+        <v>0.7564135922222728</v>
       </c>
       <c r="E231">
-        <v>0.4506989158171603</v>
+        <v>1.095213557827494</v>
       </c>
       <c r="F231">
-        <v>1.560462053880321</v>
+        <v>2.437883346301184</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.321579823911456</v>
+        <v>0.6325088051016686</v>
       </c>
       <c r="C232">
-        <v>0.4757268270171421</v>
+        <v>0.2376808845029961</v>
       </c>
       <c r="D232">
-        <v>0.8759886313720165</v>
+        <v>0.7495241026204248</v>
       </c>
       <c r="E232">
-        <v>0.4457109678852404</v>
+        <v>1.090985981541501</v>
       </c>
       <c r="F232">
-        <v>1.552880103998373</v>
+        <v>2.426982318797238</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.314433949408734</v>
+        <v>0.6288547479269254</v>
       </c>
       <c r="C233">
-        <v>0.4717170153730457</v>
+        <v>0.2346733893372034</v>
       </c>
       <c r="D233">
-        <v>0.8690976510082155</v>
+        <v>0.74268340868703</v>
       </c>
       <c r="E233">
-        <v>0.4407779395859893</v>
+        <v>1.086771803234652</v>
       </c>
       <c r="F233">
-        <v>1.545312849585439</v>
+        <v>2.416099219524027</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.307308707898614</v>
+        <v>0.625238534135513</v>
       </c>
       <c r="C234">
-        <v>0.4677385084662093</v>
+        <v>0.2317035297844492</v>
       </c>
       <c r="D234">
-        <v>0.8622535598273178</v>
+        <v>0.7358914282844607</v>
       </c>
       <c r="E234">
-        <v>0.4358993891413802</v>
+        <v>1.082570998260394</v>
       </c>
       <c r="F234">
-        <v>1.537760618189469</v>
+        <v>2.405234481247832</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.300204359440935</v>
+        <v>0.6216598546885885</v>
       </c>
       <c r="C235">
-        <v>0.4637911006218232</v>
+        <v>0.2287708979143776</v>
       </c>
       <c r="D235">
-        <v>0.8554564459317315</v>
+        <v>0.7291480746973481</v>
       </c>
       <c r="E235">
-        <v>0.4310748733168748</v>
+        <v>1.078383541924097</v>
       </c>
       <c r="F235">
-        <v>1.530223730181747</v>
+        <v>2.394388528428668</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.293121156570243</v>
+        <v>0.6181184013429776</v>
       </c>
       <c r="C236">
-        <v>0.4598745869393674</v>
+        <v>0.2258750912357605</v>
       </c>
       <c r="D236">
-        <v>0.8487063884738478</v>
+        <v>0.7224532554196147</v>
       </c>
       <c r="E236">
-        <v>0.4263039476040957</v>
+        <v>1.074209409484334</v>
       </c>
       <c r="F236">
-        <v>1.522702498869269</v>
+        <v>2.383561777708198</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.286059344437568</v>
+        <v>0.6146138665718673</v>
       </c>
       <c r="C237">
-        <v>0.4559887632982826</v>
+        <v>0.2230157042451842</v>
       </c>
       <c r="D237">
-        <v>0.8420034577940697</v>
+        <v>0.7158068723277794</v>
       </c>
       <c r="E237">
-        <v>0.4215861663980226</v>
+        <v>1.070048576151986</v>
       </c>
       <c r="F237">
-        <v>1.51519723060528</v>
+        <v>2.372754637448089</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.279019160949691</v>
+        <v>0.6111459432951896</v>
       </c>
       <c r="C238">
-        <v>0.4521334263634997</v>
+        <v>0.2201923312344697</v>
       </c>
       <c r="D238">
-        <v>0.8353477155595451</v>
+        <v>0.709208821808462</v>
       </c>
       <c r="E238">
-        <v>0.4169210831688468</v>
+        <v>1.065901017090866</v>
       </c>
       <c r="F238">
-        <v>1.507708224898773</v>
+        <v>2.361967507669772</v>
       </c>
     </row>
   </sheetData>
